--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\git\Requirements-testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vashinans\Desktop\Dmitry\Requirements-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60446C8E-38DE-4D02-883A-5C36E02D95E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Легенда" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="386">
   <si>
     <t>Аудитория:</t>
   </si>
@@ -625,9 +624,6 @@
   </si>
   <si>
     <t>Форма "Список задач"</t>
-  </si>
-  <si>
-    <t>опечатка</t>
   </si>
   <si>
     <t>Добавить задачу к проекту</t>
@@ -1137,27 +1133,7 @@
     <t>Функциональные требования</t>
   </si>
   <si>
-    <t>лучше везде использовать формулировки единообразные. "Открытие" \ "Закрытие" \ "Отсутствие" \ "Отображение" \ "Наличие" и т.п.
-т.о. данную проверку можно переформулировать как "Отсутствие команд уровня записи "Удалить" и "Изменить" при пустом списке проектов"</t>
-  </si>
-  <si>
-    <t>Хорошо, но можно сразу конкретизировать в проверке откуда значения. Например "Соответствие значений в колонках значениям полей с формы ввода конкретного проекта".
-Можно для каждой колонки добавить отдельную проверку (могут быть случаи, что важно проверить не только само значение, но и формат отображения)</t>
-  </si>
-  <si>
     <t>Поле "Название" доступно для редактирования</t>
-  </si>
-  <si>
-    <t>в строке 93 гораздо удачнее сформулировано</t>
-  </si>
-  <si>
-    <t>в поле комментарий лучше оформить как шаги воспроизведения, а то кусок текста тяжело воспринимается</t>
-  </si>
-  <si>
-    <t xml:space="preserve">по нажатию на кнопку "Изменить" просто открывается форма для редактирования, само ничего не редактируется. Скорее имелось в виду просто "Отредактировать задачу проекта"? </t>
-  </si>
-  <si>
-    <t>а вот здесь уже надо было уточнять в требованиях, какие атрибуты должны отображаться для данного поля :) а должно быть только "Фамилия", "Имя", "Отчество"</t>
   </si>
   <si>
     <t>Отсутствие команд уровня записи "Удалить" и "Изменить" при пустом списке проектов</t>
@@ -1290,12 +1266,47 @@
   <si>
     <t>Все выбранные персоны отображаются в поле "Исполнитель (ФИО)"</t>
   </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Добавить задачу</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> в блоке со списком задач, принадлежащих проекту"</t>
+    </r>
+  </si>
+  <si>
+    <t>отображается В поле</t>
+  </si>
+  <si>
+    <t>Лучше "Выбрать\Назначить несколько персон на одну задачу", а то кажется что оно само назначается</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1530,6 +1541,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="21">
@@ -2299,10 +2318,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2412,10 +2427,14 @@
     <xf numFmtId="49" fontId="22" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2627,27 +2646,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="2" width="107.6640625" customWidth="1"/>
-    <col min="3" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="107.7109375" customWidth="1"/>
+    <col min="3" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="174" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2655,15 +2674,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="173" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -2671,22 +2690,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="175" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="176" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="177"/>
-    </row>
-    <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="216"/>
+    </row>
+    <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -2694,7 +2713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -2702,7 +2721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -2710,7 +2729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -2718,7 +2737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
@@ -2726,7 +2745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -2734,7 +2753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -2742,7 +2761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>19</v>
       </c>
@@ -2750,997 +2769,997 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A7:B7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="https://github.com/1dima1204/Requirements-testing/blob/main/Requirements%20testing.docx" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://github.com/1dima1204/Requirements-testing/blob/main/Requirements%20testing.docx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3748,7 +3767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3756,21 +3775,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B314" sqref="B314"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="84.109375" customWidth="1"/>
-    <col min="2" max="2" width="65.109375" customWidth="1"/>
-    <col min="3" max="3" width="65.109375" style="45" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="27" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="84.140625" customWidth="1"/>
+    <col min="2" max="2" width="65.140625" customWidth="1"/>
+    <col min="3" max="3" width="65.140625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
@@ -3811,7 +3830,7 @@
       <c r="Z1" s="13"/>
       <c r="AA1" s="13"/>
     </row>
-    <row r="2" spans="1:27" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="36"/>
@@ -3840,7 +3859,7 @@
       <c r="Z2" s="15"/>
       <c r="AA2" s="15"/>
     </row>
-    <row r="3" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>24</v>
       </c>
@@ -3871,7 +3890,7 @@
       <c r="Z3" s="17"/>
       <c r="AA3" s="17"/>
     </row>
-    <row r="4" spans="1:27" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="s">
         <v>57</v>
       </c>
@@ -3902,12 +3921,12 @@
       <c r="Z4" s="19"/>
       <c r="AA4" s="19"/>
     </row>
-    <row r="5" spans="1:27" ht="29.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="29.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>191</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>192</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="21"/>
@@ -3935,7 +3954,7 @@
       <c r="Z5" s="21"/>
       <c r="AA5" s="21"/>
     </row>
-    <row r="6" spans="1:27" ht="115.2" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>54</v>
       </c>
@@ -3966,14 +3985,12 @@
       <c r="Z6" s="21"/>
       <c r="AA6" s="21"/>
     </row>
-    <row r="7" spans="1:27" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="179" t="s">
-        <v>348</v>
+    <row r="7" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="177" t="s">
+        <v>341</v>
       </c>
       <c r="B7" s="66"/>
-      <c r="C7" s="37" t="s">
-        <v>341</v>
-      </c>
+      <c r="C7" s="37"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
@@ -3999,16 +4016,14 @@
       <c r="Z7" s="21"/>
       <c r="AA7" s="21"/>
     </row>
-    <row r="8" spans="1:27" ht="86.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="179" t="s">
-        <v>351</v>
-      </c>
-      <c r="B8" s="180" t="s">
-        <v>357</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>342</v>
-      </c>
+    <row r="8" spans="1:27" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="177" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8" s="178" t="s">
+        <v>350</v>
+      </c>
+      <c r="C8" s="37"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
@@ -4034,11 +4049,11 @@
       <c r="Z8" s="21"/>
       <c r="AA8" s="21"/>
     </row>
-    <row r="9" spans="1:27" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="B9" s="180"/>
+    <row r="9" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="180" t="s">
+        <v>347</v>
+      </c>
+      <c r="B9" s="178"/>
       <c r="C9" s="37"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -4065,12 +4080,12 @@
       <c r="Z9" s="21"/>
       <c r="AA9" s="21"/>
     </row>
-    <row r="10" spans="1:27" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="182" t="s">
-        <v>355</v>
-      </c>
-      <c r="B10" s="183" t="s">
-        <v>356</v>
+    <row r="10" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="180" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="181" t="s">
+        <v>349</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="21"/>
@@ -4098,11 +4113,11 @@
       <c r="Z10" s="21"/>
       <c r="AA10" s="21"/>
     </row>
-    <row r="11" spans="1:27" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="182" t="s">
-        <v>359</v>
-      </c>
-      <c r="B11" s="180"/>
+    <row r="11" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="180" t="s">
+        <v>352</v>
+      </c>
+      <c r="B11" s="178"/>
       <c r="C11" s="37"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -4129,11 +4144,11 @@
       <c r="Z11" s="21"/>
       <c r="AA11" s="21"/>
     </row>
-    <row r="12" spans="1:27" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="182" t="s">
-        <v>360</v>
-      </c>
-      <c r="B12" s="180"/>
+    <row r="12" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="180" t="s">
+        <v>353</v>
+      </c>
+      <c r="B12" s="178"/>
       <c r="C12" s="37"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -4160,11 +4175,11 @@
       <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
     </row>
-    <row r="13" spans="1:27" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="182" t="s">
-        <v>361</v>
-      </c>
-      <c r="B13" s="180"/>
+    <row r="13" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="180" t="s">
+        <v>354</v>
+      </c>
+      <c r="B13" s="178"/>
       <c r="C13" s="37"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -4191,11 +4206,11 @@
       <c r="Z13" s="21"/>
       <c r="AA13" s="21"/>
     </row>
-    <row r="14" spans="1:27" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="182" t="s">
-        <v>362</v>
-      </c>
-      <c r="B14" s="180"/>
+    <row r="14" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="180" t="s">
+        <v>355</v>
+      </c>
+      <c r="B14" s="178"/>
       <c r="C14" s="37"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -4222,7 +4237,7 @@
       <c r="Z14" s="21"/>
       <c r="AA14" s="21"/>
     </row>
-    <row r="15" spans="1:27" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="66" t="s">
         <v>55</v>
       </c>
@@ -4253,7 +4268,7 @@
       <c r="Z15" s="21"/>
       <c r="AA15" s="21"/>
     </row>
-    <row r="16" spans="1:27" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="66" t="s">
         <v>56</v>
       </c>
@@ -4284,7 +4299,7 @@
       <c r="Z16" s="21"/>
       <c r="AA16" s="21"/>
     </row>
-    <row r="17" spans="1:27" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="66" t="s">
         <v>58</v>
       </c>
@@ -4315,7 +4330,7 @@
       <c r="Z17" s="21"/>
       <c r="AA17" s="21"/>
     </row>
-    <row r="18" spans="1:27" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="66" t="s">
         <v>59</v>
       </c>
@@ -4346,7 +4361,7 @@
       <c r="Z18" s="21"/>
       <c r="AA18" s="21"/>
     </row>
-    <row r="19" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>25</v>
       </c>
@@ -4377,7 +4392,7 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="17"/>
     </row>
-    <row r="20" spans="1:27" ht="115.2" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="63" t="s">
         <v>79</v>
       </c>
@@ -4408,9 +4423,9 @@
       <c r="Z20" s="21"/>
       <c r="AA20" s="21"/>
     </row>
-    <row r="21" spans="1:27" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="63" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="37"/>
@@ -4439,7 +4454,7 @@
       <c r="Z21" s="21"/>
       <c r="AA21" s="21"/>
     </row>
-    <row r="22" spans="1:27" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="66" t="s">
         <v>60</v>
       </c>
@@ -4470,7 +4485,7 @@
       <c r="Z22" s="21"/>
       <c r="AA22" s="21"/>
     </row>
-    <row r="23" spans="1:27" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>26</v>
       </c>
@@ -4501,7 +4516,7 @@
       <c r="Z23" s="24"/>
       <c r="AA23" s="24"/>
     </row>
-    <row r="24" spans="1:27" ht="14.4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>61</v>
       </c>
@@ -4532,7 +4547,7 @@
       <c r="Z24" s="34"/>
       <c r="AA24" s="34"/>
     </row>
-    <row r="25" spans="1:27" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>62</v>
       </c>
@@ -4563,7 +4578,7 @@
       <c r="Z25" s="34"/>
       <c r="AA25" s="34"/>
     </row>
-    <row r="26" spans="1:27" ht="14.4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>63</v>
       </c>
@@ -4594,9 +4609,9 @@
       <c r="Z26" s="34"/>
       <c r="AA26" s="34"/>
     </row>
-    <row r="27" spans="1:27" ht="14.4" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A27" s="180" t="s">
-        <v>214</v>
+    <row r="27" spans="1:27" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="178" t="s">
+        <v>213</v>
       </c>
       <c r="B27" s="66"/>
       <c r="C27" s="37"/>
@@ -4625,9 +4640,9 @@
       <c r="Z27" s="34"/>
       <c r="AA27" s="34"/>
     </row>
-    <row r="28" spans="1:27" ht="14.4" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A28" s="180" t="s">
-        <v>215</v>
+    <row r="28" spans="1:27" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="178" t="s">
+        <v>214</v>
       </c>
       <c r="B28" s="66"/>
       <c r="C28" s="37"/>
@@ -4656,9 +4671,9 @@
       <c r="Z28" s="34"/>
       <c r="AA28" s="34"/>
     </row>
-    <row r="29" spans="1:27" ht="14.4" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A29" s="180" t="s">
-        <v>213</v>
+    <row r="29" spans="1:27" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="178" t="s">
+        <v>212</v>
       </c>
       <c r="B29" s="66"/>
       <c r="C29" s="37"/>
@@ -4687,7 +4702,7 @@
       <c r="Z29" s="34"/>
       <c r="AA29" s="34"/>
     </row>
-    <row r="30" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>27</v>
       </c>
@@ -4718,7 +4733,7 @@
       <c r="Z30" s="27"/>
       <c r="AA30" s="27"/>
     </row>
-    <row r="31" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>28</v>
       </c>
@@ -4749,7 +4764,7 @@
       <c r="Z31" s="21"/>
       <c r="AA31" s="21"/>
     </row>
-    <row r="32" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>29</v>
       </c>
@@ -4780,7 +4795,7 @@
       <c r="Z32" s="21"/>
       <c r="AA32" s="21"/>
     </row>
-    <row r="33" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>30</v>
       </c>
@@ -4811,7 +4826,7 @@
       <c r="Z33" s="27"/>
       <c r="AA33" s="27"/>
     </row>
-    <row r="34" spans="1:27" ht="28.8" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" ht="30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A34" s="68" t="s">
         <v>64</v>
       </c>
@@ -4842,7 +4857,7 @@
       <c r="Z34" s="21"/>
       <c r="AA34" s="21"/>
     </row>
-    <row r="35" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A35" s="62" t="s">
         <v>31</v>
       </c>
@@ -4873,7 +4888,7 @@
       <c r="Z35" s="31"/>
       <c r="AA35" s="31"/>
     </row>
-    <row r="36" spans="1:27" ht="14.4" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>32</v>
       </c>
@@ -4906,7 +4921,7 @@
       <c r="Z36" s="21"/>
       <c r="AA36" s="21"/>
     </row>
-    <row r="37" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>33</v>
       </c>
@@ -4939,7 +4954,7 @@
       <c r="Z37" s="21"/>
       <c r="AA37" s="21"/>
     </row>
-    <row r="38" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>34</v>
       </c>
@@ -4972,7 +4987,7 @@
       <c r="Z38" s="21"/>
       <c r="AA38" s="21"/>
     </row>
-    <row r="39" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>35</v>
       </c>
@@ -5005,12 +5020,12 @@
       <c r="Z39" s="21"/>
       <c r="AA39" s="21"/>
     </row>
-    <row r="40" spans="1:27" ht="14.4" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C40" s="41"/>
       <c r="D40" s="21"/>
@@ -5038,12 +5053,12 @@
       <c r="Z40" s="21"/>
       <c r="AA40" s="21"/>
     </row>
-    <row r="41" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="209" t="s">
-        <v>217</v>
+      <c r="B41" s="207" t="s">
+        <v>216</v>
       </c>
       <c r="C41" s="41"/>
       <c r="D41" s="21"/>
@@ -5071,12 +5086,12 @@
       <c r="Z41" s="21"/>
       <c r="AA41" s="21"/>
     </row>
-    <row r="42" spans="1:27" ht="14.4" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="209" t="s">
-        <v>219</v>
+      <c r="B42" s="207" t="s">
+        <v>218</v>
       </c>
       <c r="C42" s="41"/>
       <c r="D42" s="21"/>
@@ -5104,7 +5119,7 @@
       <c r="Z42" s="21"/>
       <c r="AA42" s="21"/>
     </row>
-    <row r="43" spans="1:27" ht="28.8" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" ht="45" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>39</v>
       </c>
@@ -5137,7 +5152,7 @@
       <c r="Z43" s="31"/>
       <c r="AA43" s="31"/>
     </row>
-    <row r="44" spans="1:27" ht="14.4" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A44" s="56" t="s">
         <v>41</v>
       </c>
@@ -5168,12 +5183,12 @@
       <c r="Z44" s="61"/>
       <c r="AA44" s="61"/>
     </row>
-    <row r="45" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A45" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="213" t="s">
-        <v>218</v>
+      <c r="B45" s="211" t="s">
+        <v>217</v>
       </c>
       <c r="C45" s="91"/>
       <c r="D45" s="34"/>
@@ -5201,12 +5216,12 @@
       <c r="Z45" s="21"/>
       <c r="AA45" s="21"/>
     </row>
-    <row r="46" spans="1:27" ht="19.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" ht="19.899999999999999" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A46" s="67" t="s">
-        <v>212</v>
-      </c>
-      <c r="B46" s="209" t="s">
-        <v>220</v>
+        <v>211</v>
+      </c>
+      <c r="B46" s="207" t="s">
+        <v>219</v>
       </c>
       <c r="C46" s="122"/>
       <c r="D46" s="21"/>
@@ -5234,11 +5249,11 @@
       <c r="Z46" s="21"/>
       <c r="AA46" s="21"/>
     </row>
-    <row r="47" spans="1:27" ht="42" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" ht="42" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A47" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="214" t="s">
+      <c r="B47" s="212" t="s">
         <v>71</v>
       </c>
       <c r="C47" s="44"/>
@@ -5267,7 +5282,7 @@
       <c r="Z47" s="21"/>
       <c r="AA47" s="21"/>
     </row>
-    <row r="48" spans="1:27" ht="31.2" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" ht="31.15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A48" s="68" t="s">
         <v>43</v>
       </c>
@@ -5300,7 +5315,7 @@
       <c r="Z48" s="21"/>
       <c r="AA48" s="21"/>
     </row>
-    <row r="49" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A49" s="78" t="s">
         <v>44</v>
       </c>
@@ -5332,7 +5347,7 @@
       <c r="Z49" s="21"/>
       <c r="AA49" s="21"/>
     </row>
-    <row r="50" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A50" s="78" t="s">
         <v>75</v>
       </c>
@@ -5365,7 +5380,7 @@
       <c r="Z50" s="21"/>
       <c r="AA50" s="21"/>
     </row>
-    <row r="51" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A51" s="78" t="s">
         <v>76</v>
       </c>
@@ -5398,7 +5413,7 @@
       <c r="Z51" s="21"/>
       <c r="AA51" s="21"/>
     </row>
-    <row r="52" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
         <v>45</v>
       </c>
@@ -5429,7 +5444,7 @@
       <c r="Z52" s="27"/>
       <c r="AA52" s="27"/>
     </row>
-    <row r="53" spans="1:27" ht="28.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" ht="28.9" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A53" s="68" t="s">
         <v>64</v>
       </c>
@@ -5460,7 +5475,7 @@
       <c r="Z53" s="21"/>
       <c r="AA53" s="21"/>
     </row>
-    <row r="54" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>31</v>
       </c>
@@ -5491,7 +5506,7 @@
       <c r="Z54" s="31"/>
       <c r="AA54" s="31"/>
     </row>
-    <row r="55" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
         <v>32</v>
       </c>
@@ -5524,7 +5539,7 @@
       <c r="Z55" s="21"/>
       <c r="AA55" s="21"/>
     </row>
-    <row r="56" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
         <v>33</v>
       </c>
@@ -5557,7 +5572,7 @@
       <c r="Z56" s="21"/>
       <c r="AA56" s="21"/>
     </row>
-    <row r="57" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A57" s="28" t="s">
         <v>34</v>
       </c>
@@ -5590,7 +5605,7 @@
       <c r="Z57" s="21"/>
       <c r="AA57" s="21"/>
     </row>
-    <row r="58" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A58" s="28" t="s">
         <v>35</v>
       </c>
@@ -5623,7 +5638,7 @@
       <c r="Z58" s="21"/>
       <c r="AA58" s="21"/>
     </row>
-    <row r="59" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
         <v>36</v>
       </c>
@@ -5656,7 +5671,7 @@
       <c r="Z59" s="21"/>
       <c r="AA59" s="21"/>
     </row>
-    <row r="60" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A60" s="28" t="s">
         <v>46</v>
       </c>
@@ -5689,12 +5704,12 @@
       <c r="Z60" s="21"/>
       <c r="AA60" s="21"/>
     </row>
-    <row r="61" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A61" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B61" s="212" t="s">
-        <v>221</v>
+      <c r="B61" s="210" t="s">
+        <v>220</v>
       </c>
       <c r="C61" s="41"/>
       <c r="D61" s="21"/>
@@ -5722,7 +5737,7 @@
       <c r="Z61" s="21"/>
       <c r="AA61" s="21"/>
     </row>
-    <row r="62" spans="1:27" ht="28.2" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" ht="28.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A62" s="57" t="s">
         <v>39</v>
       </c>
@@ -5755,7 +5770,7 @@
       <c r="Z62" s="31"/>
       <c r="AA62" s="31"/>
     </row>
-    <row r="63" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A63" s="50" t="s">
         <v>41</v>
       </c>
@@ -5786,7 +5801,7 @@
       <c r="Z63" s="21"/>
       <c r="AA63" s="21"/>
     </row>
-    <row r="64" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A64" s="71" t="s">
         <v>69</v>
       </c>
@@ -5819,12 +5834,12 @@
       <c r="Z64" s="21"/>
       <c r="AA64" s="21"/>
     </row>
-    <row r="65" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A65" s="67" t="s">
-        <v>212</v>
-      </c>
-      <c r="B65" s="209" t="s">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="B65" s="207" t="s">
+        <v>221</v>
       </c>
       <c r="C65" s="44"/>
       <c r="D65" s="21"/>
@@ -5852,12 +5867,12 @@
       <c r="Z65" s="21"/>
       <c r="AA65" s="21"/>
     </row>
-    <row r="66" spans="1:27" ht="43.2" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" ht="43.15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A66" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B66" s="211" t="s">
-        <v>245</v>
+      <c r="B66" s="209" t="s">
+        <v>244</v>
       </c>
       <c r="C66" s="44"/>
       <c r="D66" s="21"/>
@@ -5885,7 +5900,7 @@
       <c r="Z66" s="21"/>
       <c r="AA66" s="21"/>
     </row>
-    <row r="67" spans="1:27" ht="29.4" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" ht="29.45" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A67" s="71" t="s">
         <v>43</v>
       </c>
@@ -5918,7 +5933,7 @@
       <c r="Z67" s="21"/>
       <c r="AA67" s="21"/>
     </row>
-    <row r="68" spans="1:27" ht="13.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" ht="13.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A68" s="78" t="s">
         <v>44</v>
       </c>
@@ -5950,7 +5965,7 @@
       <c r="Z68" s="21"/>
       <c r="AA68" s="21"/>
     </row>
-    <row r="69" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A69" s="78" t="s">
         <v>75</v>
       </c>
@@ -5983,7 +5998,7 @@
       <c r="Z69" s="21"/>
       <c r="AA69" s="21"/>
     </row>
-    <row r="70" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A70" s="78" t="s">
         <v>76</v>
       </c>
@@ -6016,7 +6031,7 @@
       <c r="Z70" s="21"/>
       <c r="AA70" s="21"/>
     </row>
-    <row r="71" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
         <v>48</v>
       </c>
@@ -6047,7 +6062,7 @@
       <c r="Z71" s="27"/>
       <c r="AA71" s="27"/>
     </row>
-    <row r="72" spans="1:27" ht="27" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" ht="27" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A72" s="67" t="s">
         <v>64</v>
       </c>
@@ -6078,7 +6093,7 @@
       <c r="Z72" s="21"/>
       <c r="AA72" s="21"/>
     </row>
-    <row r="73" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A73" s="29" t="s">
         <v>31</v>
       </c>
@@ -6109,12 +6124,12 @@
       <c r="Z73" s="31"/>
       <c r="AA73" s="31"/>
     </row>
-    <row r="74" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A74" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="209" t="s">
-        <v>223</v>
+      <c r="B74" s="207" t="s">
+        <v>222</v>
       </c>
       <c r="C74" s="41"/>
       <c r="D74" s="21"/>
@@ -6142,12 +6157,12 @@
       <c r="Z74" s="21"/>
       <c r="AA74" s="21"/>
     </row>
-    <row r="75" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A75" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B75" s="209" t="s">
-        <v>224</v>
+      <c r="B75" s="207" t="s">
+        <v>223</v>
       </c>
       <c r="C75" s="41"/>
       <c r="D75" s="21"/>
@@ -6175,7 +6190,7 @@
       <c r="Z75" s="21"/>
       <c r="AA75" s="21"/>
     </row>
-    <row r="76" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A76" s="28" t="s">
         <v>34</v>
       </c>
@@ -6208,7 +6223,7 @@
       <c r="Z76" s="21"/>
       <c r="AA76" s="21"/>
     </row>
-    <row r="77" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
         <v>35</v>
       </c>
@@ -6241,7 +6256,7 @@
       <c r="Z77" s="21"/>
       <c r="AA77" s="21"/>
     </row>
-    <row r="78" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A78" s="28" t="s">
         <v>49</v>
       </c>
@@ -6274,12 +6289,12 @@
       <c r="Z78" s="21"/>
       <c r="AA78" s="21"/>
     </row>
-    <row r="79" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A79" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B79" s="209" t="s">
-        <v>225</v>
+      <c r="B79" s="207" t="s">
+        <v>224</v>
       </c>
       <c r="C79" s="41"/>
       <c r="D79" s="21"/>
@@ -6307,12 +6322,12 @@
       <c r="Z79" s="21"/>
       <c r="AA79" s="21"/>
     </row>
-    <row r="80" spans="1:27" ht="63" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" ht="63" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A80" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B80" s="210" t="s">
-        <v>226</v>
+      <c r="B80" s="208" t="s">
+        <v>225</v>
       </c>
       <c r="C80" s="41"/>
       <c r="D80" s="21"/>
@@ -6340,7 +6355,7 @@
       <c r="Z80" s="21"/>
       <c r="AA80" s="21"/>
     </row>
-    <row r="81" spans="1:27" ht="30" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" ht="30" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A81" s="57" t="s">
         <v>39</v>
       </c>
@@ -6373,7 +6388,7 @@
       <c r="Z81" s="31"/>
       <c r="AA81" s="31"/>
     </row>
-    <row r="82" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A82" s="50" t="s">
         <v>41</v>
       </c>
@@ -6404,12 +6419,12 @@
       <c r="Z82" s="21"/>
       <c r="AA82" s="21"/>
     </row>
-    <row r="83" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A83" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="B83" s="209" t="s">
-        <v>227</v>
+      <c r="B83" s="207" t="s">
+        <v>226</v>
       </c>
       <c r="C83" s="43"/>
       <c r="D83" s="21"/>
@@ -6437,12 +6452,12 @@
       <c r="Z83" s="21"/>
       <c r="AA83" s="21"/>
     </row>
-    <row r="84" spans="1:27" ht="68.400000000000006" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" ht="68.45" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A84" s="67" t="s">
-        <v>212</v>
-      </c>
-      <c r="B84" s="210" t="s">
-        <v>228</v>
+        <v>211</v>
+      </c>
+      <c r="B84" s="208" t="s">
+        <v>227</v>
       </c>
       <c r="C84" s="126"/>
       <c r="D84" s="21"/>
@@ -6470,7 +6485,7 @@
       <c r="Z84" s="21"/>
       <c r="AA84" s="21"/>
     </row>
-    <row r="85" spans="1:27" ht="28.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" ht="28.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A85" s="68" t="s">
         <v>42</v>
       </c>
@@ -6503,7 +6518,7 @@
       <c r="Z85" s="21"/>
       <c r="AA85" s="21"/>
     </row>
-    <row r="86" spans="1:27" ht="30.6" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" ht="30.6" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A86" s="68" t="s">
         <v>43</v>
       </c>
@@ -6536,7 +6551,7 @@
       <c r="Z86" s="21"/>
       <c r="AA86" s="21"/>
     </row>
-    <row r="87" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A87" s="78" t="s">
         <v>44</v>
       </c>
@@ -6569,7 +6584,7 @@
       <c r="Z87" s="21"/>
       <c r="AA87" s="21"/>
     </row>
-    <row r="88" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A88" s="78" t="s">
         <v>75</v>
       </c>
@@ -6602,7 +6617,7 @@
       <c r="Z88" s="21"/>
       <c r="AA88" s="21"/>
     </row>
-    <row r="89" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A89" s="78" t="s">
         <v>76</v>
       </c>
@@ -6635,7 +6650,7 @@
       <c r="Z89" s="21"/>
       <c r="AA89" s="21"/>
     </row>
-    <row r="90" spans="1:27" ht="14.4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A90" s="65" t="s">
         <v>87</v>
       </c>
@@ -6666,7 +6681,7 @@
       <c r="Z90" s="27"/>
       <c r="AA90" s="27"/>
     </row>
-    <row r="91" spans="1:27" ht="144" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" ht="150" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A91" s="28" t="s">
         <v>52</v>
       </c>
@@ -6697,9 +6712,9 @@
       <c r="Z91" s="34"/>
       <c r="AA91" s="34"/>
     </row>
-    <row r="92" spans="1:27" ht="28.8" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A92" s="202" t="s">
-        <v>196</v>
+    <row r="92" spans="1:27" ht="30" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A92" s="200" t="s">
+        <v>195</v>
       </c>
       <c r="B92" s="108"/>
       <c r="C92" s="47"/>
@@ -6728,9 +6743,9 @@
       <c r="Z92" s="34"/>
       <c r="AA92" s="34"/>
     </row>
-    <row r="93" spans="1:27" ht="14.4" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A93" s="178" t="s">
-        <v>193</v>
+    <row r="93" spans="1:27" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A93" s="176" t="s">
+        <v>192</v>
       </c>
       <c r="B93" s="108"/>
       <c r="C93" s="47"/>
@@ -6759,12 +6774,12 @@
       <c r="Z93" s="34"/>
       <c r="AA93" s="34"/>
     </row>
-    <row r="94" spans="1:27" ht="43.2" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A94" s="178" t="s">
-        <v>194</v>
-      </c>
-      <c r="B94" s="180" t="s">
-        <v>206</v>
+    <row r="94" spans="1:27" ht="45" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A94" s="176" t="s">
+        <v>193</v>
+      </c>
+      <c r="B94" s="178" t="s">
+        <v>205</v>
       </c>
       <c r="C94" s="47"/>
       <c r="D94" s="34"/>
@@ -6792,8 +6807,8 @@
       <c r="Z94" s="34"/>
       <c r="AA94" s="34"/>
     </row>
-    <row r="95" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A95" s="178" t="s">
+    <row r="95" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A95" s="176" t="s">
         <v>55</v>
       </c>
       <c r="B95" s="33"/>
@@ -6823,8 +6838,8 @@
       <c r="Z95" s="34"/>
       <c r="AA95" s="34"/>
     </row>
-    <row r="96" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A96" s="178" t="s">
+    <row r="96" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A96" s="176" t="s">
         <v>89</v>
       </c>
       <c r="B96" s="33"/>
@@ -6854,11 +6869,11 @@
       <c r="Z96" s="34"/>
       <c r="AA96" s="34"/>
     </row>
-    <row r="97" spans="1:27" ht="31.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A97" s="200" t="s">
-        <v>203</v>
-      </c>
-      <c r="B97" s="203"/>
+    <row r="97" spans="1:27" ht="31.9" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A97" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="B97" s="201"/>
       <c r="C97" s="47"/>
       <c r="D97" s="34"/>
       <c r="E97" s="34"/>
@@ -6885,12 +6900,12 @@
       <c r="Z97" s="34"/>
       <c r="AA97" s="34"/>
     </row>
-    <row r="98" spans="1:27" ht="33.6" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A98" s="200" t="s">
-        <v>188</v>
-      </c>
-      <c r="B98" s="197" t="s">
-        <v>207</v>
+    <row r="98" spans="1:27" ht="33.6" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A98" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="B98" s="195" t="s">
+        <v>206</v>
       </c>
       <c r="C98" s="47"/>
       <c r="D98" s="34"/>
@@ -6918,12 +6933,12 @@
       <c r="Z98" s="34"/>
       <c r="AA98" s="34"/>
     </row>
-    <row r="99" spans="1:27" ht="31.2" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A99" s="200" t="s">
-        <v>208</v>
-      </c>
-      <c r="B99" s="197" t="s">
+    <row r="99" spans="1:27" ht="31.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A99" s="198" t="s">
         <v>207</v>
+      </c>
+      <c r="B99" s="195" t="s">
+        <v>206</v>
       </c>
       <c r="C99" s="47"/>
       <c r="D99" s="34"/>
@@ -6951,8 +6966,8 @@
       <c r="Z99" s="34"/>
       <c r="AA99" s="34"/>
     </row>
-    <row r="100" spans="1:27" ht="29.4" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A100" s="204" t="s">
+    <row r="100" spans="1:27" ht="29.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A100" s="202" t="s">
         <v>88</v>
       </c>
       <c r="B100" s="33"/>
@@ -6982,9 +6997,9 @@
       <c r="Z100" s="34"/>
       <c r="AA100" s="34"/>
     </row>
-    <row r="101" spans="1:27" ht="31.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A101" s="205" t="s">
-        <v>210</v>
+    <row r="101" spans="1:27" ht="31.9" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A101" s="203" t="s">
+        <v>209</v>
       </c>
       <c r="B101" s="33"/>
       <c r="C101" s="47"/>
@@ -7013,9 +7028,9 @@
       <c r="Z101" s="34"/>
       <c r="AA101" s="34"/>
     </row>
-    <row r="102" spans="1:27" ht="28.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A102" s="205" t="s">
-        <v>209</v>
+    <row r="102" spans="1:27" ht="28.9" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A102" s="203" t="s">
+        <v>208</v>
       </c>
       <c r="B102" s="33"/>
       <c r="C102" s="47"/>
@@ -7044,12 +7059,12 @@
       <c r="Z102" s="34"/>
       <c r="AA102" s="34"/>
     </row>
-    <row r="103" spans="1:27" ht="31.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A103" s="206" t="s">
-        <v>189</v>
-      </c>
-      <c r="B103" s="197" t="s">
-        <v>211</v>
+    <row r="103" spans="1:27" ht="31.9" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A103" s="204" t="s">
+        <v>188</v>
+      </c>
+      <c r="B103" s="195" t="s">
+        <v>210</v>
       </c>
       <c r="C103" s="47"/>
       <c r="D103" s="34"/>
@@ -7077,11 +7092,11 @@
       <c r="Z103" s="34"/>
       <c r="AA103" s="34"/>
     </row>
-    <row r="104" spans="1:27" ht="14.4" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A104" s="207" t="s">
-        <v>190</v>
-      </c>
-      <c r="B104" s="208"/>
+    <row r="104" spans="1:27" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A104" s="205" t="s">
+        <v>189</v>
+      </c>
+      <c r="B104" s="206"/>
       <c r="C104" s="47"/>
       <c r="D104" s="34"/>
       <c r="E104" s="34"/>
@@ -7108,7 +7123,7 @@
       <c r="Z104" s="34"/>
       <c r="AA104" s="34"/>
     </row>
-    <row r="105" spans="1:27" ht="26.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" ht="26.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A105" s="104" t="s">
         <v>183</v>
       </c>
@@ -7139,11 +7154,11 @@
       <c r="Z105" s="24"/>
       <c r="AA105" s="24"/>
     </row>
-    <row r="106" spans="1:27" ht="129.6" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A106" s="105" t="s">
         <v>184</v>
       </c>
-      <c r="B106" s="197"/>
+      <c r="B106" s="195"/>
       <c r="C106" s="54"/>
       <c r="D106" s="21"/>
       <c r="E106" s="21"/>
@@ -7170,11 +7185,11 @@
       <c r="Z106" s="21"/>
       <c r="AA106" s="21"/>
     </row>
-    <row r="107" spans="1:27" ht="60.6" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" ht="60.6" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A107" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="B107" s="200"/>
+      <c r="B107" s="198"/>
       <c r="C107" s="109"/>
       <c r="D107" s="21"/>
       <c r="E107" s="21"/>
@@ -7201,9 +7216,9 @@
       <c r="Z107" s="21"/>
       <c r="AA107" s="21"/>
     </row>
-    <row r="108" spans="1:27" ht="27" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A108" s="200" t="s">
-        <v>205</v>
+    <row r="108" spans="1:27" ht="27" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A108" s="198" t="s">
+        <v>204</v>
       </c>
       <c r="B108" s="94"/>
       <c r="C108" s="112"/>
@@ -7232,14 +7247,12 @@
       <c r="Z108" s="21"/>
       <c r="AA108" s="21"/>
     </row>
-    <row r="109" spans="1:27" ht="17.399999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A109" s="196" t="s">
-        <v>343</v>
+    <row r="109" spans="1:27" ht="17.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A109" s="194" t="s">
+        <v>340</v>
       </c>
       <c r="B109" s="113"/>
-      <c r="C109" s="111" t="s">
-        <v>343</v>
-      </c>
+      <c r="C109" s="111"/>
       <c r="D109" s="34"/>
       <c r="E109" s="21"/>
       <c r="F109" s="21"/>
@@ -7265,11 +7278,11 @@
       <c r="Z109" s="21"/>
       <c r="AA109" s="21"/>
     </row>
-    <row r="110" spans="1:27" ht="18.600000000000001" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A110" s="196" t="s">
-        <v>378</v>
-      </c>
-      <c r="B110" s="200"/>
+    <row r="110" spans="1:27" ht="18.600000000000001" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A110" s="194" t="s">
+        <v>371</v>
+      </c>
+      <c r="B110" s="198"/>
       <c r="C110" s="111"/>
       <c r="D110" s="34"/>
       <c r="E110" s="21"/>
@@ -7296,11 +7309,11 @@
       <c r="Z110" s="21"/>
       <c r="AA110" s="21"/>
     </row>
-    <row r="111" spans="1:27" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A111" s="196" t="s">
-        <v>379</v>
-      </c>
-      <c r="B111" s="198"/>
+    <row r="111" spans="1:27" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A111" s="194" t="s">
+        <v>372</v>
+      </c>
+      <c r="B111" s="196"/>
       <c r="C111" s="111"/>
       <c r="D111" s="34"/>
       <c r="E111" s="21"/>
@@ -7327,15 +7340,15 @@
       <c r="Z111" s="21"/>
       <c r="AA111" s="21"/>
     </row>
-    <row r="112" spans="1:27" ht="45.6" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A112" s="196" t="s">
-        <v>380</v>
-      </c>
-      <c r="B112" s="199" t="s">
-        <v>381</v>
+    <row r="112" spans="1:27" ht="45.6" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A112" s="194" t="s">
+        <v>373</v>
+      </c>
+      <c r="B112" s="197" t="s">
+        <v>374</v>
       </c>
       <c r="C112" s="111" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="D112" s="34"/>
       <c r="E112" s="21"/>
@@ -7362,16 +7375,14 @@
       <c r="Z112" s="21"/>
       <c r="AA112" s="21"/>
     </row>
-    <row r="113" spans="1:27" ht="131.4" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A113" s="200" t="s">
-        <v>263</v>
-      </c>
-      <c r="B113" s="196" t="s">
-        <v>383</v>
-      </c>
-      <c r="C113" s="111" t="s">
-        <v>345</v>
-      </c>
+    <row r="113" spans="1:27" ht="131.44999999999999" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A113" s="198" t="s">
+        <v>262</v>
+      </c>
+      <c r="B113" s="194" t="s">
+        <v>376</v>
+      </c>
+      <c r="C113" s="111"/>
       <c r="D113" s="34"/>
       <c r="E113" s="21"/>
       <c r="F113" s="21"/>
@@ -7397,14 +7408,12 @@
       <c r="Z113" s="21"/>
       <c r="AA113" s="21"/>
     </row>
-    <row r="114" spans="1:27" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A114" s="196" t="s">
-        <v>384</v>
+    <row r="114" spans="1:27" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A114" s="194" t="s">
+        <v>377</v>
       </c>
       <c r="B114" s="105"/>
-      <c r="C114" s="111" t="s">
-        <v>346</v>
-      </c>
+      <c r="C114" s="111"/>
       <c r="D114" s="34"/>
       <c r="E114" s="21"/>
       <c r="F114" s="21"/>
@@ -7430,11 +7439,11 @@
       <c r="Z114" s="21"/>
       <c r="AA114" s="21"/>
     </row>
-    <row r="115" spans="1:27" ht="31.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A115" s="200" t="s">
-        <v>204</v>
-      </c>
-      <c r="B115" s="201"/>
+    <row r="115" spans="1:27" ht="31.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A115" s="198" t="s">
+        <v>203</v>
+      </c>
+      <c r="B115" s="199"/>
       <c r="C115" s="111"/>
       <c r="D115" s="34"/>
       <c r="E115" s="21"/>
@@ -7461,12 +7470,12 @@
       <c r="Z115" s="21"/>
       <c r="AA115" s="21"/>
     </row>
-    <row r="116" spans="1:27" ht="31.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A116" s="200" t="s">
-        <v>199</v>
-      </c>
-      <c r="B116" s="198" t="s">
-        <v>197</v>
+    <row r="116" spans="1:27" ht="31.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A116" s="198" t="s">
+        <v>198</v>
+      </c>
+      <c r="B116" s="196" t="s">
+        <v>196</v>
       </c>
       <c r="C116" s="111"/>
       <c r="D116" s="34"/>
@@ -7494,11 +7503,11 @@
       <c r="Z116" s="21"/>
       <c r="AA116" s="21"/>
     </row>
-    <row r="117" spans="1:27" ht="31.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A117" s="200" t="s">
-        <v>202</v>
-      </c>
-      <c r="B117" s="201"/>
+    <row r="117" spans="1:27" ht="31.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A117" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="B117" s="199"/>
       <c r="C117" s="111"/>
       <c r="D117" s="34"/>
       <c r="E117" s="21"/>
@@ -7525,14 +7534,12 @@
       <c r="Z117" s="21"/>
       <c r="AA117" s="21"/>
     </row>
-    <row r="118" spans="1:27" ht="31.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A118" s="196" t="s">
-        <v>382</v>
+    <row r="118" spans="1:27" ht="31.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A118" s="194" t="s">
+        <v>375</v>
       </c>
       <c r="B118" s="94"/>
-      <c r="C118" s="111" t="s">
-        <v>187</v>
-      </c>
+      <c r="C118" s="111"/>
       <c r="D118" s="34"/>
       <c r="E118" s="21"/>
       <c r="F118" s="21"/>
@@ -7558,9 +7565,9 @@
       <c r="Z118" s="21"/>
       <c r="AA118" s="21"/>
     </row>
-    <row r="119" spans="1:27" ht="31.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A119" s="200" t="s">
-        <v>201</v>
+    <row r="119" spans="1:27" ht="31.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A119" s="198" t="s">
+        <v>200</v>
       </c>
       <c r="B119" s="94"/>
       <c r="C119" s="111"/>
@@ -7589,7 +7596,7 @@
       <c r="Z119" s="21"/>
       <c r="AA119" s="21"/>
     </row>
-    <row r="120" spans="1:27" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:27" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="106" t="s">
         <v>186</v>
       </c>
@@ -7620,9 +7627,9 @@
       <c r="Z120" s="17"/>
       <c r="AA120" s="17"/>
     </row>
-    <row r="121" spans="1:27" ht="18.600000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27" ht="18.600000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A121" s="107" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B121" s="84"/>
       <c r="C121" s="92"/>
@@ -7651,12 +7658,12 @@
       <c r="Z121" s="21"/>
       <c r="AA121" s="21"/>
     </row>
-    <row r="122" spans="1:27" ht="29.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:27" ht="29.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A122" s="120" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B122" s="120" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C122" s="90"/>
       <c r="D122" s="21"/>
@@ -7684,9 +7691,9 @@
       <c r="Z122" s="21"/>
       <c r="AA122" s="21"/>
     </row>
-    <row r="123" spans="1:27" ht="162.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:27" ht="162.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A123" s="107" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B123" s="117"/>
       <c r="C123" s="109"/>
@@ -7715,9 +7722,9 @@
       <c r="Z123" s="21"/>
       <c r="AA123" s="21"/>
     </row>
-    <row r="124" spans="1:27" ht="32.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="179" t="s">
-        <v>349</v>
+    <row r="124" spans="1:27" ht="32.450000000000003" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="177" t="s">
+        <v>342</v>
       </c>
       <c r="B124" s="119"/>
       <c r="C124" s="111"/>
@@ -7746,12 +7753,12 @@
       <c r="Z124" s="21"/>
       <c r="AA124" s="21"/>
     </row>
-    <row r="125" spans="1:27" ht="46.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="179" t="s">
-        <v>352</v>
-      </c>
-      <c r="B125" s="181" t="s">
-        <v>358</v>
+    <row r="125" spans="1:27" ht="46.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="177" t="s">
+        <v>345</v>
+      </c>
+      <c r="B125" s="179" t="s">
+        <v>351</v>
       </c>
       <c r="C125" s="111"/>
       <c r="D125" s="34"/>
@@ -7779,11 +7786,11 @@
       <c r="Z125" s="21"/>
       <c r="AA125" s="21"/>
     </row>
-    <row r="126" spans="1:27" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="182" t="s">
-        <v>354</v>
-      </c>
-      <c r="B126" s="180"/>
+    <row r="126" spans="1:27" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="180" t="s">
+        <v>347</v>
+      </c>
+      <c r="B126" s="178"/>
       <c r="C126" s="111"/>
       <c r="D126" s="34"/>
       <c r="E126" s="21"/>
@@ -7810,12 +7817,12 @@
       <c r="Z126" s="21"/>
       <c r="AA126" s="21"/>
     </row>
-    <row r="127" spans="1:27" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="182" t="s">
-        <v>355</v>
-      </c>
-      <c r="B127" s="185" t="s">
-        <v>356</v>
+    <row r="127" spans="1:27" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="180" t="s">
+        <v>348</v>
+      </c>
+      <c r="B127" s="183" t="s">
+        <v>349</v>
       </c>
       <c r="C127" s="111"/>
       <c r="D127" s="34"/>
@@ -7843,11 +7850,11 @@
       <c r="Z127" s="21"/>
       <c r="AA127" s="21"/>
     </row>
-    <row r="128" spans="1:27" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="182" t="s">
-        <v>359</v>
-      </c>
-      <c r="B128" s="181"/>
+    <row r="128" spans="1:27" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="180" t="s">
+        <v>352</v>
+      </c>
+      <c r="B128" s="179"/>
       <c r="C128" s="111"/>
       <c r="D128" s="34"/>
       <c r="E128" s="21"/>
@@ -7874,11 +7881,11 @@
       <c r="Z128" s="21"/>
       <c r="AA128" s="21"/>
     </row>
-    <row r="129" spans="1:27" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="182" t="s">
-        <v>363</v>
-      </c>
-      <c r="B129" s="181"/>
+    <row r="129" spans="1:27" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="B129" s="179"/>
       <c r="C129" s="111"/>
       <c r="D129" s="34"/>
       <c r="E129" s="21"/>
@@ -7905,11 +7912,11 @@
       <c r="Z129" s="21"/>
       <c r="AA129" s="21"/>
     </row>
-    <row r="130" spans="1:27" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="182" t="s">
-        <v>364</v>
-      </c>
-      <c r="B130" s="181"/>
+    <row r="130" spans="1:27" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="180" t="s">
+        <v>357</v>
+      </c>
+      <c r="B130" s="179"/>
       <c r="C130" s="111"/>
       <c r="D130" s="34"/>
       <c r="E130" s="21"/>
@@ -7936,12 +7943,12 @@
       <c r="Z130" s="21"/>
       <c r="AA130" s="21"/>
     </row>
-    <row r="131" spans="1:27" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="182" t="s">
-        <v>365</v>
-      </c>
-      <c r="B131" s="186" t="s">
-        <v>366</v>
+    <row r="131" spans="1:27" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="180" t="s">
+        <v>358</v>
+      </c>
+      <c r="B131" s="184" t="s">
+        <v>359</v>
       </c>
       <c r="C131" s="111"/>
       <c r="D131" s="34"/>
@@ -7969,12 +7976,12 @@
       <c r="Z131" s="21"/>
       <c r="AA131" s="21"/>
     </row>
-    <row r="132" spans="1:27" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="182" t="s">
-        <v>367</v>
-      </c>
-      <c r="B132" s="186" t="s">
-        <v>366</v>
+    <row r="132" spans="1:27" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="180" t="s">
+        <v>360</v>
+      </c>
+      <c r="B132" s="184" t="s">
+        <v>359</v>
       </c>
       <c r="C132" s="111"/>
       <c r="D132" s="34"/>
@@ -8002,12 +8009,12 @@
       <c r="Z132" s="21"/>
       <c r="AA132" s="21"/>
     </row>
-    <row r="133" spans="1:27" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="182" t="s">
-        <v>368</v>
-      </c>
-      <c r="B133" s="186" t="s">
-        <v>369</v>
+    <row r="133" spans="1:27" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="180" t="s">
+        <v>361</v>
+      </c>
+      <c r="B133" s="184" t="s">
+        <v>362</v>
       </c>
       <c r="C133" s="111"/>
       <c r="D133" s="34"/>
@@ -8035,12 +8042,12 @@
       <c r="Z133" s="21"/>
       <c r="AA133" s="21"/>
     </row>
-    <row r="134" spans="1:27" ht="46.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="182" t="s">
-        <v>370</v>
-      </c>
-      <c r="B134" s="186" t="s">
-        <v>371</v>
+    <row r="134" spans="1:27" ht="46.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="180" t="s">
+        <v>363</v>
+      </c>
+      <c r="B134" s="184" t="s">
+        <v>364</v>
       </c>
       <c r="C134" s="111"/>
       <c r="D134" s="34"/>
@@ -8068,7 +8075,7 @@
       <c r="Z134" s="21"/>
       <c r="AA134" s="21"/>
     </row>
-    <row r="135" spans="1:27" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:27" ht="13.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A135" s="114" t="s">
         <v>55</v>
       </c>
@@ -8099,7 +8106,7 @@
       <c r="Z135" s="21"/>
       <c r="AA135" s="21"/>
     </row>
-    <row r="136" spans="1:27" ht="27.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:27" ht="27.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A136" s="120" t="s">
         <v>88</v>
       </c>
@@ -8130,7 +8137,7 @@
       <c r="Z136" s="21"/>
       <c r="AA136" s="21"/>
     </row>
-    <row r="137" spans="1:27" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:27" ht="13.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A137" s="66" t="s">
         <v>58</v>
       </c>
@@ -8161,9 +8168,9 @@
       <c r="Z137" s="21"/>
       <c r="AA137" s="21"/>
     </row>
-    <row r="138" spans="1:27" ht="13.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:27" ht="13.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A138" s="120" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B138" s="86"/>
       <c r="C138" s="54"/>
@@ -8192,9 +8199,9 @@
       <c r="Z138" s="21"/>
       <c r="AA138" s="21"/>
     </row>
-    <row r="139" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="106" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B139" s="17"/>
       <c r="C139" s="38"/>
@@ -8223,9 +8230,9 @@
       <c r="Z139" s="17"/>
       <c r="AA139" s="17"/>
     </row>
-    <row r="140" spans="1:27" ht="158.4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:27" ht="165" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A140" s="56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B140" s="33"/>
       <c r="C140" s="47"/>
@@ -8254,7 +8261,7 @@
       <c r="Z140" s="34"/>
       <c r="AA140" s="34"/>
     </row>
-    <row r="141" spans="1:27" ht="14.4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:27" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A141" s="66" t="s">
         <v>60</v>
       </c>
@@ -8285,9 +8292,9 @@
       <c r="Z141" s="34"/>
       <c r="AA141" s="34"/>
     </row>
-    <row r="142" spans="1:27" ht="14.4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:27" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A142" s="107" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B142" s="33"/>
       <c r="C142" s="47"/>
@@ -8316,9 +8323,9 @@
       <c r="Z142" s="34"/>
       <c r="AA142" s="34"/>
     </row>
-    <row r="143" spans="1:27" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:27" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A143" s="128" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B143" s="134"/>
       <c r="C143" s="135"/>
@@ -8347,7 +8354,7 @@
       <c r="Z143" s="24"/>
       <c r="AA143" s="24"/>
     </row>
-    <row r="144" spans="1:27" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:27" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A144" s="114" t="s">
         <v>61</v>
       </c>
@@ -8355,63 +8362,63 @@
       <c r="C144" s="92"/>
       <c r="D144" s="132"/>
     </row>
-    <row r="145" spans="1:27" ht="28.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:27" ht="28.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A145" s="114" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B145" s="88"/>
       <c r="C145" s="92"/>
       <c r="D145" s="132"/>
     </row>
-    <row r="146" spans="1:27" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:27" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A146" s="114" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B146" s="88"/>
       <c r="C146" s="92"/>
       <c r="D146" s="132"/>
     </row>
-    <row r="147" spans="1:27" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:27" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A147" s="129" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B147" s="88"/>
       <c r="C147" s="92"/>
       <c r="D147" s="132"/>
     </row>
-    <row r="148" spans="1:27" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:27" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A148" s="129" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B148" s="88"/>
       <c r="C148" s="92"/>
       <c r="D148" s="132"/>
     </row>
-    <row r="149" spans="1:27" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:27" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A149" s="129" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B149" s="88"/>
       <c r="C149" s="92"/>
       <c r="D149" s="132"/>
     </row>
-    <row r="150" spans="1:27" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A150" s="184" t="s">
-        <v>385</v>
+    <row r="150" spans="1:27" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A150" s="182" t="s">
+        <v>378</v>
       </c>
       <c r="B150" s="88"/>
       <c r="C150" s="92"/>
       <c r="D150" s="132"/>
     </row>
-    <row r="151" spans="1:27" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A151" s="184" t="s">
-        <v>386</v>
+    <row r="151" spans="1:27" ht="14.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A151" s="182" t="s">
+        <v>379</v>
       </c>
       <c r="B151" s="88"/>
       <c r="C151" s="92"/>
       <c r="D151" s="132"/>
     </row>
-    <row r="152" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A152" s="130" t="s">
         <v>27</v>
       </c>
@@ -8442,9 +8449,9 @@
       <c r="Z152" s="27"/>
       <c r="AA152" s="27"/>
     </row>
-    <row r="153" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A153" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B153" s="138"/>
       <c r="C153" s="139"/>
@@ -8473,7 +8480,7 @@
       <c r="Z153" s="21"/>
       <c r="AA153" s="21"/>
     </row>
-    <row r="154" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A154" s="50" t="s">
         <v>29</v>
       </c>
@@ -8504,7 +8511,7 @@
       <c r="Z154" s="21"/>
       <c r="AA154" s="21"/>
     </row>
-    <row r="155" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A155" s="25" t="s">
         <v>90</v>
       </c>
@@ -8535,9 +8542,9 @@
       <c r="Z155" s="27"/>
       <c r="AA155" s="27"/>
     </row>
-    <row r="156" spans="1:27" ht="14.4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:27" ht="30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A156" s="140" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B156" s="48"/>
       <c r="C156" s="49"/>
@@ -8566,9 +8573,9 @@
       <c r="Z156" s="34"/>
       <c r="AA156" s="34"/>
     </row>
-    <row r="157" spans="1:27" ht="14.4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:27" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A157" s="140" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B157" s="48"/>
       <c r="C157" s="49"/>
@@ -8597,9 +8604,9 @@
       <c r="Z157" s="34"/>
       <c r="AA157" s="34"/>
     </row>
-    <row r="158" spans="1:27" ht="14.4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:27" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A158" s="66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B158" s="48"/>
       <c r="C158" s="49"/>
@@ -8628,9 +8635,9 @@
       <c r="Z158" s="34"/>
       <c r="AA158" s="34"/>
     </row>
-    <row r="159" spans="1:27" ht="14.4" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:27" ht="30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A159" s="141" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B159" s="48"/>
       <c r="C159" s="49"/>
@@ -8659,7 +8666,7 @@
       <c r="Z159" s="34"/>
       <c r="AA159" s="34"/>
     </row>
-    <row r="160" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A160" s="25" t="s">
         <v>30</v>
       </c>
@@ -8690,7 +8697,7 @@
       <c r="Z160" s="27"/>
       <c r="AA160" s="27"/>
     </row>
-    <row r="161" spans="1:27" ht="28.8" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:27" ht="30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A161" s="67" t="s">
         <v>64</v>
       </c>
@@ -8721,7 +8728,7 @@
       <c r="Z161" s="34"/>
       <c r="AA161" s="34"/>
     </row>
-    <row r="162" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A162" s="62" t="s">
         <v>31</v>
       </c>
@@ -8752,7 +8759,7 @@
       <c r="Z162" s="31"/>
       <c r="AA162" s="31"/>
     </row>
-    <row r="163" spans="1:27" ht="14.4" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:27" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A163" s="32" t="s">
         <v>32</v>
       </c>
@@ -8785,7 +8792,7 @@
       <c r="Z163" s="21"/>
       <c r="AA163" s="21"/>
     </row>
-    <row r="164" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A164" s="32" t="s">
         <v>33</v>
       </c>
@@ -8818,7 +8825,7 @@
       <c r="Z164" s="21"/>
       <c r="AA164" s="21"/>
     </row>
-    <row r="165" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A165" s="32" t="s">
         <v>34</v>
       </c>
@@ -8851,7 +8858,7 @@
       <c r="Z165" s="21"/>
       <c r="AA165" s="21"/>
     </row>
-    <row r="166" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A166" s="32" t="s">
         <v>35</v>
       </c>
@@ -8884,7 +8891,7 @@
       <c r="Z166" s="21"/>
       <c r="AA166" s="21"/>
     </row>
-    <row r="167" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A167" s="32" t="s">
         <v>36</v>
       </c>
@@ -8917,7 +8924,7 @@
       <c r="Z167" s="21"/>
       <c r="AA167" s="21"/>
     </row>
-    <row r="168" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A168" s="32" t="s">
         <v>46</v>
       </c>
@@ -8950,12 +8957,12 @@
       <c r="Z168" s="21"/>
       <c r="AA168" s="21"/>
     </row>
-    <row r="169" spans="1:27" ht="35.4" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:27" ht="35.450000000000003" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A169" s="32" t="s">
         <v>51</v>
       </c>
       <c r="B169" s="142" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C169" s="41"/>
       <c r="D169" s="21"/>
@@ -8983,7 +8990,7 @@
       <c r="Z169" s="21"/>
       <c r="AA169" s="21"/>
     </row>
-    <row r="170" spans="1:27" ht="28.8" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:27" ht="45" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A170" s="29" t="s">
         <v>39</v>
       </c>
@@ -9016,7 +9023,7 @@
       <c r="Z170" s="31"/>
       <c r="AA170" s="31"/>
     </row>
-    <row r="171" spans="1:27" ht="14.4" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:27" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A171" s="56" t="s">
         <v>41</v>
       </c>
@@ -9047,7 +9054,7 @@
       <c r="Z171" s="61"/>
       <c r="AA171" s="61"/>
     </row>
-    <row r="172" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A172" s="71" t="s">
         <v>69</v>
       </c>
@@ -9080,12 +9087,12 @@
       <c r="Z172" s="21"/>
       <c r="AA172" s="21"/>
     </row>
-    <row r="173" spans="1:27" ht="27" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:27" ht="27" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A173" s="68" t="s">
         <v>70</v>
       </c>
       <c r="B173" s="142" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C173" s="44"/>
       <c r="D173" s="21"/>
@@ -9113,7 +9120,7 @@
       <c r="Z173" s="21"/>
       <c r="AA173" s="21"/>
     </row>
-    <row r="174" spans="1:27" ht="42" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:27" ht="42" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A174" s="32" t="s">
         <v>42</v>
       </c>
@@ -9146,7 +9153,7 @@
       <c r="Z174" s="21"/>
       <c r="AA174" s="21"/>
     </row>
-    <row r="175" spans="1:27" ht="31.2" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:27" ht="31.15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A175" s="32" t="s">
         <v>43</v>
       </c>
@@ -9179,7 +9186,7 @@
       <c r="Z175" s="21"/>
       <c r="AA175" s="21"/>
     </row>
-    <row r="176" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A176" s="78" t="s">
         <v>44</v>
       </c>
@@ -9211,7 +9218,7 @@
       <c r="Z176" s="21"/>
       <c r="AA176" s="21"/>
     </row>
-    <row r="177" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A177" s="78" t="s">
         <v>75</v>
       </c>
@@ -9244,7 +9251,7 @@
       <c r="Z177" s="21"/>
       <c r="AA177" s="21"/>
     </row>
-    <row r="178" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A178" s="78" t="s">
         <v>76</v>
       </c>
@@ -9277,7 +9284,7 @@
       <c r="Z178" s="21"/>
       <c r="AA178" s="21"/>
     </row>
-    <row r="179" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A179" s="25" t="s">
         <v>94</v>
       </c>
@@ -9308,7 +9315,7 @@
       <c r="Z179" s="27"/>
       <c r="AA179" s="27"/>
     </row>
-    <row r="180" spans="1:27" ht="28.8" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:27" ht="30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A180" s="67" t="s">
         <v>64</v>
       </c>
@@ -9339,7 +9346,7 @@
       <c r="Z180" s="34"/>
       <c r="AA180" s="34"/>
     </row>
-    <row r="181" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A181" s="62" t="s">
         <v>31</v>
       </c>
@@ -9370,11 +9377,11 @@
       <c r="Z181" s="31"/>
       <c r="AA181" s="31"/>
     </row>
-    <row r="182" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A182" s="56" t="s">
-        <v>248</v>
-      </c>
-      <c r="B182" s="187">
+        <v>247</v>
+      </c>
+      <c r="B182" s="185">
         <v>1</v>
       </c>
       <c r="C182" s="41"/>
@@ -9403,11 +9410,11 @@
       <c r="Z182" s="21"/>
       <c r="AA182" s="21"/>
     </row>
-    <row r="183" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A183" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="B183" s="187">
+        <v>248</v>
+      </c>
+      <c r="B183" s="185">
         <v>234567890</v>
       </c>
       <c r="C183" s="41"/>
@@ -9436,7 +9443,7 @@
       <c r="Z183" s="21"/>
       <c r="AA183" s="21"/>
     </row>
-    <row r="184" spans="1:27" ht="28.8" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:27" ht="45" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A184" s="29" t="s">
         <v>39</v>
       </c>
@@ -9469,9 +9476,9 @@
       <c r="Z184" s="31"/>
       <c r="AA184" s="31"/>
     </row>
-    <row r="185" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A185" s="78" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B185" s="72"/>
       <c r="C185" s="51"/>
@@ -9500,7 +9507,7 @@
       <c r="Z185" s="21"/>
       <c r="AA185" s="21"/>
     </row>
-    <row r="186" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A186" s="78" t="s">
         <v>95</v>
       </c>
@@ -9532,7 +9539,7 @@
       <c r="Z186" s="21"/>
       <c r="AA186" s="21"/>
     </row>
-    <row r="187" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A187" s="78" t="s">
         <v>96</v>
       </c>
@@ -9565,7 +9572,7 @@
       <c r="Z187" s="21"/>
       <c r="AA187" s="21"/>
     </row>
-    <row r="188" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A188" s="78" t="s">
         <v>44</v>
       </c>
@@ -9597,7 +9604,7 @@
       <c r="Z188" s="21"/>
       <c r="AA188" s="21"/>
     </row>
-    <row r="189" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A189" s="78" t="s">
         <v>75</v>
       </c>
@@ -9630,12 +9637,12 @@
       <c r="Z189" s="21"/>
       <c r="AA189" s="21"/>
     </row>
-    <row r="190" spans="1:27" ht="13.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:27" ht="13.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A190" s="78" t="s">
         <v>76</v>
       </c>
       <c r="B190" s="77" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C190" s="54"/>
       <c r="D190" s="21"/>
@@ -9663,7 +9670,7 @@
       <c r="Z190" s="21"/>
       <c r="AA190" s="21"/>
     </row>
-    <row r="191" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A191" s="65" t="s">
         <v>100</v>
       </c>
@@ -9694,7 +9701,7 @@
       <c r="Z191" s="27"/>
       <c r="AA191" s="27"/>
     </row>
-    <row r="192" spans="1:27" ht="28.8" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:27" ht="30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A192" s="67" t="s">
         <v>64</v>
       </c>
@@ -9725,7 +9732,7 @@
       <c r="Z192" s="34"/>
       <c r="AA192" s="34"/>
     </row>
-    <row r="193" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A193" s="62" t="s">
         <v>101</v>
       </c>
@@ -9756,7 +9763,7 @@
       <c r="Z193" s="31"/>
       <c r="AA193" s="31"/>
     </row>
-    <row r="194" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A194" s="56" t="s">
         <v>167</v>
       </c>
@@ -9789,7 +9796,7 @@
       <c r="Z194" s="21"/>
       <c r="AA194" s="21"/>
     </row>
-    <row r="195" spans="1:27" ht="28.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:27" ht="28.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A195" s="56" t="s">
         <v>168</v>
       </c>
@@ -9822,7 +9829,7 @@
       <c r="Z195" s="21"/>
       <c r="AA195" s="21"/>
     </row>
-    <row r="196" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A196" s="56" t="s">
         <v>104</v>
       </c>
@@ -9855,7 +9862,7 @@
       <c r="Z196" s="21"/>
       <c r="AA196" s="21"/>
     </row>
-    <row r="197" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A197" s="56" t="s">
         <v>149</v>
       </c>
@@ -9888,7 +9895,7 @@
       <c r="Z197" s="34"/>
       <c r="AA197" s="34"/>
     </row>
-    <row r="198" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A198" s="56" t="s">
         <v>150</v>
       </c>
@@ -9921,7 +9928,7 @@
       <c r="Z198" s="34"/>
       <c r="AA198" s="34"/>
     </row>
-    <row r="199" spans="1:27" ht="28.8" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:27" ht="45" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A199" s="95" t="s">
         <v>103</v>
       </c>
@@ -9954,7 +9961,7 @@
       <c r="Z199" s="31"/>
       <c r="AA199" s="31"/>
     </row>
-    <row r="200" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A200" s="94" t="s">
         <v>41</v>
       </c>
@@ -9985,7 +9992,7 @@
       <c r="Z200" s="21"/>
       <c r="AA200" s="21"/>
     </row>
-    <row r="201" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A201" s="101" t="s">
         <v>161</v>
       </c>
@@ -10018,7 +10025,7 @@
       <c r="Z201" s="21"/>
       <c r="AA201" s="21"/>
     </row>
-    <row r="202" spans="1:27" ht="28.2" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:27" ht="28.15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A202" s="56" t="s">
         <v>169</v>
       </c>
@@ -10051,7 +10058,7 @@
       <c r="Z202" s="21"/>
       <c r="AA202" s="21"/>
     </row>
-    <row r="203" spans="1:27" ht="28.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:27" ht="28.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A203" s="56" t="s">
         <v>170</v>
       </c>
@@ -10084,7 +10091,7 @@
       <c r="Z203" s="21"/>
       <c r="AA203" s="21"/>
     </row>
-    <row r="204" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A204" s="94" t="s">
         <v>123</v>
       </c>
@@ -10117,7 +10124,7 @@
       <c r="Z204" s="21"/>
       <c r="AA204" s="21"/>
     </row>
-    <row r="205" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A205" s="96" t="s">
         <v>105</v>
       </c>
@@ -10150,7 +10157,7 @@
       <c r="Z205" s="21"/>
       <c r="AA205" s="21"/>
     </row>
-    <row r="206" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A206" s="78" t="s">
         <v>107</v>
       </c>
@@ -10183,7 +10190,7 @@
       <c r="Z206" s="21"/>
       <c r="AA206" s="21"/>
     </row>
-    <row r="207" spans="1:27" ht="13.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:27" ht="13.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A207" s="78" t="s">
         <v>109</v>
       </c>
@@ -10216,7 +10223,7 @@
       <c r="Z207" s="21"/>
       <c r="AA207" s="21"/>
     </row>
-    <row r="208" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A208" s="78" t="s">
         <v>111</v>
       </c>
@@ -10248,7 +10255,7 @@
       <c r="Z208" s="21"/>
       <c r="AA208" s="21"/>
     </row>
-    <row r="209" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A209" s="78" t="s">
         <v>153</v>
       </c>
@@ -10280,7 +10287,7 @@
       <c r="Z209" s="21"/>
       <c r="AA209" s="21"/>
     </row>
-    <row r="210" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A210" s="78" t="s">
         <v>113</v>
       </c>
@@ -10313,7 +10320,7 @@
       <c r="Z210" s="21"/>
       <c r="AA210" s="21"/>
     </row>
-    <row r="211" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A211" s="78" t="s">
         <v>133</v>
       </c>
@@ -10346,7 +10353,7 @@
       <c r="Z211" s="21"/>
       <c r="AA211" s="21"/>
     </row>
-    <row r="212" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A212" s="78" t="s">
         <v>135</v>
       </c>
@@ -10379,7 +10386,7 @@
       <c r="Z212" s="21"/>
       <c r="AA212" s="21"/>
     </row>
-    <row r="213" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A213" s="78" t="s">
         <v>137</v>
       </c>
@@ -10412,7 +10419,7 @@
       <c r="Z213" s="21"/>
       <c r="AA213" s="21"/>
     </row>
-    <row r="214" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A214" s="78" t="s">
         <v>139</v>
       </c>
@@ -10445,7 +10452,7 @@
       <c r="Z214" s="21"/>
       <c r="AA214" s="21"/>
     </row>
-    <row r="215" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A215" s="78" t="s">
         <v>141</v>
       </c>
@@ -10478,7 +10485,7 @@
       <c r="Z215" s="21"/>
       <c r="AA215" s="21"/>
     </row>
-    <row r="216" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A216" s="78" t="s">
         <v>143</v>
       </c>
@@ -10511,7 +10518,7 @@
       <c r="Z216" s="21"/>
       <c r="AA216" s="21"/>
     </row>
-    <row r="217" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A217" s="78" t="s">
         <v>145</v>
       </c>
@@ -10544,7 +10551,7 @@
       <c r="Z217" s="21"/>
       <c r="AA217" s="21"/>
     </row>
-    <row r="218" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A218" s="78" t="s">
         <v>147</v>
       </c>
@@ -10577,7 +10584,7 @@
       <c r="Z218" s="21"/>
       <c r="AA218" s="21"/>
     </row>
-    <row r="219" spans="1:27" ht="28.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:27" ht="28.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A219" s="56" t="s">
         <v>152</v>
       </c>
@@ -10610,7 +10617,7 @@
       <c r="Z219" s="21"/>
       <c r="AA219" s="21"/>
     </row>
-    <row r="220" spans="1:27" ht="28.2" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:27" ht="28.15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A220" s="56" t="s">
         <v>155</v>
       </c>
@@ -10643,7 +10650,7 @@
       <c r="Z220" s="21"/>
       <c r="AA220" s="21"/>
     </row>
-    <row r="221" spans="1:27" ht="13.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:27" ht="13.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A221" s="78" t="s">
         <v>116</v>
       </c>
@@ -10676,7 +10683,7 @@
       <c r="Z221" s="21"/>
       <c r="AA221" s="21"/>
     </row>
-    <row r="222" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A222" s="93" t="s">
         <v>117</v>
       </c>
@@ -10709,7 +10716,7 @@
       <c r="Z222" s="21"/>
       <c r="AA222" s="21"/>
     </row>
-    <row r="223" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A223" s="78" t="s">
         <v>119</v>
       </c>
@@ -10742,7 +10749,7 @@
       <c r="Z223" s="21"/>
       <c r="AA223" s="21"/>
     </row>
-    <row r="224" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A224" s="78" t="s">
         <v>121</v>
       </c>
@@ -10775,7 +10782,7 @@
       <c r="Z224" s="21"/>
       <c r="AA224" s="21"/>
     </row>
-    <row r="225" spans="1:27" ht="13.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:27" ht="13.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A225" s="78" t="s">
         <v>124</v>
       </c>
@@ -10808,7 +10815,7 @@
       <c r="Z225" s="21"/>
       <c r="AA225" s="21"/>
     </row>
-    <row r="226" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A226" s="78" t="s">
         <v>126</v>
       </c>
@@ -10840,7 +10847,7 @@
       <c r="Z226" s="21"/>
       <c r="AA226" s="21"/>
     </row>
-    <row r="227" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A227" s="78" t="s">
         <v>128</v>
       </c>
@@ -10873,7 +10880,7 @@
       <c r="Z227" s="21"/>
       <c r="AA227" s="21"/>
     </row>
-    <row r="228" spans="1:27" ht="13.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:27" ht="13.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A228" s="78" t="s">
         <v>130</v>
       </c>
@@ -10906,7 +10913,7 @@
       <c r="Z228" s="21"/>
       <c r="AA228" s="21"/>
     </row>
-    <row r="229" spans="1:27" ht="13.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:27" ht="13.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A229" s="78" t="s">
         <v>159</v>
       </c>
@@ -10939,7 +10946,7 @@
       <c r="Z229" s="21"/>
       <c r="AA229" s="21"/>
     </row>
-    <row r="230" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A230" s="78" t="s">
         <v>160</v>
       </c>
@@ -10971,7 +10978,7 @@
       <c r="Z230" s="21"/>
       <c r="AA230" s="21"/>
     </row>
-    <row r="231" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A231" s="78" t="s">
         <v>163</v>
       </c>
@@ -11003,7 +11010,7 @@
       <c r="Z231" s="21"/>
       <c r="AA231" s="21"/>
     </row>
-    <row r="232" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A232" s="78" t="s">
         <v>165</v>
       </c>
@@ -11035,7 +11042,7 @@
       <c r="Z232" s="21"/>
       <c r="AA232" s="21"/>
     </row>
-    <row r="233" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A233" s="78" t="s">
         <v>157</v>
       </c>
@@ -11068,7 +11075,7 @@
       <c r="Z233" s="21"/>
       <c r="AA233" s="21"/>
     </row>
-    <row r="234" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A234" s="62" t="s">
         <v>174</v>
       </c>
@@ -11099,7 +11106,7 @@
       <c r="Z234" s="31"/>
       <c r="AA234" s="31"/>
     </row>
-    <row r="235" spans="1:27" ht="28.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:27" ht="28.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A235" s="78" t="s">
         <v>178</v>
       </c>
@@ -11130,7 +11137,7 @@
       <c r="Z235" s="21"/>
       <c r="AA235" s="21"/>
     </row>
-    <row r="236" spans="1:27" ht="13.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:27" ht="13.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A236" s="78" t="s">
         <v>176</v>
       </c>
@@ -11161,7 +11168,7 @@
       <c r="Z236" s="21"/>
       <c r="AA236" s="21"/>
     </row>
-    <row r="237" spans="1:27" ht="13.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:27" ht="13.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A237" s="78" t="s">
         <v>175</v>
       </c>
@@ -11192,12 +11199,12 @@
       <c r="Z237" s="34"/>
       <c r="AA237" s="34"/>
     </row>
-    <row r="238" spans="1:27" ht="14.4" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:27" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A238" s="78" t="s">
         <v>177</v>
       </c>
-      <c r="B238" s="188" t="s">
-        <v>252</v>
+      <c r="B238" s="186" t="s">
+        <v>251</v>
       </c>
       <c r="C238" s="54"/>
       <c r="D238" s="34"/>
@@ -11225,7 +11232,7 @@
       <c r="Z238" s="34"/>
       <c r="AA238" s="34"/>
     </row>
-    <row r="239" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A239" s="62" t="s">
         <v>171</v>
       </c>
@@ -11256,7 +11263,7 @@
       <c r="Z239" s="31"/>
       <c r="AA239" s="31"/>
     </row>
-    <row r="240" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A240" s="56" t="s">
         <v>167</v>
       </c>
@@ -11289,7 +11296,7 @@
       <c r="Z240" s="21"/>
       <c r="AA240" s="21"/>
     </row>
-    <row r="241" spans="1:27" ht="28.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:27" ht="28.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A241" s="56" t="s">
         <v>168</v>
       </c>
@@ -11322,7 +11329,7 @@
       <c r="Z241" s="21"/>
       <c r="AA241" s="21"/>
     </row>
-    <row r="242" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A242" s="56" t="s">
         <v>104</v>
       </c>
@@ -11355,7 +11362,7 @@
       <c r="Z242" s="21"/>
       <c r="AA242" s="21"/>
     </row>
-    <row r="243" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A243" s="56" t="s">
         <v>149</v>
       </c>
@@ -11388,7 +11395,7 @@
       <c r="Z243" s="34"/>
       <c r="AA243" s="34"/>
     </row>
-    <row r="244" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A244" s="56" t="s">
         <v>150</v>
       </c>
@@ -11421,7 +11428,7 @@
       <c r="Z244" s="34"/>
       <c r="AA244" s="34"/>
     </row>
-    <row r="245" spans="1:27" ht="28.8" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:27" ht="45" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A245" s="95" t="s">
         <v>172</v>
       </c>
@@ -11454,7 +11461,7 @@
       <c r="Z245" s="31"/>
       <c r="AA245" s="31"/>
     </row>
-    <row r="246" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A246" s="94" t="s">
         <v>173</v>
       </c>
@@ -11485,7 +11492,7 @@
       <c r="Z246" s="21"/>
       <c r="AA246" s="21"/>
     </row>
-    <row r="247" spans="1:27" ht="31.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:27" ht="31.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A247" s="65" t="s">
         <v>179</v>
       </c>
@@ -11518,7 +11525,7 @@
       <c r="Z247" s="27"/>
       <c r="AA247" s="27"/>
     </row>
-    <row r="248" spans="1:27" ht="28.8" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:27" ht="30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A248" s="67" t="s">
         <v>64</v>
       </c>
@@ -11549,7 +11556,7 @@
       <c r="Z248" s="34"/>
       <c r="AA248" s="34"/>
     </row>
-    <row r="249" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A249" s="62" t="s">
         <v>101</v>
       </c>
@@ -11580,7 +11587,7 @@
       <c r="Z249" s="31"/>
       <c r="AA249" s="31"/>
     </row>
-    <row r="250" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A250" s="56" t="s">
         <v>167</v>
       </c>
@@ -11613,7 +11620,7 @@
       <c r="Z250" s="21"/>
       <c r="AA250" s="21"/>
     </row>
-    <row r="251" spans="1:27" ht="28.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:27" ht="28.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A251" s="56" t="s">
         <v>168</v>
       </c>
@@ -11646,7 +11653,7 @@
       <c r="Z251" s="21"/>
       <c r="AA251" s="21"/>
     </row>
-    <row r="252" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A252" s="56" t="s">
         <v>104</v>
       </c>
@@ -11679,7 +11686,7 @@
       <c r="Z252" s="21"/>
       <c r="AA252" s="21"/>
     </row>
-    <row r="253" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A253" s="56" t="s">
         <v>149</v>
       </c>
@@ -11712,7 +11719,7 @@
       <c r="Z253" s="34"/>
       <c r="AA253" s="34"/>
     </row>
-    <row r="254" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A254" s="56" t="s">
         <v>150</v>
       </c>
@@ -11745,7 +11752,7 @@
       <c r="Z254" s="34"/>
       <c r="AA254" s="34"/>
     </row>
-    <row r="255" spans="1:27" ht="28.8" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:27" ht="45" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A255" s="95" t="s">
         <v>103</v>
       </c>
@@ -11778,12 +11785,12 @@
       <c r="Z255" s="31"/>
       <c r="AA255" s="31"/>
     </row>
-    <row r="256" spans="1:27" ht="42.6" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:27" ht="42.6" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A256" s="144" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B256" s="144" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C256" s="54"/>
       <c r="D256" s="34"/>
@@ -11811,7 +11818,7 @@
       <c r="Z256" s="21"/>
       <c r="AA256" s="21"/>
     </row>
-    <row r="257" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A257" s="94" t="s">
         <v>41</v>
       </c>
@@ -11842,7 +11849,7 @@
       <c r="Z257" s="21"/>
       <c r="AA257" s="21"/>
     </row>
-    <row r="258" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A258" s="101" t="s">
         <v>161</v>
       </c>
@@ -11875,7 +11882,7 @@
       <c r="Z258" s="21"/>
       <c r="AA258" s="21"/>
     </row>
-    <row r="259" spans="1:27" ht="28.2" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:27" ht="28.15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A259" s="56" t="s">
         <v>169</v>
       </c>
@@ -11908,7 +11915,7 @@
       <c r="Z259" s="21"/>
       <c r="AA259" s="21"/>
     </row>
-    <row r="260" spans="1:27" ht="28.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:27" ht="28.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A260" s="56" t="s">
         <v>170</v>
       </c>
@@ -11941,7 +11948,7 @@
       <c r="Z260" s="21"/>
       <c r="AA260" s="21"/>
     </row>
-    <row r="261" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A261" s="94" t="s">
         <v>123</v>
       </c>
@@ -11974,7 +11981,7 @@
       <c r="Z261" s="21"/>
       <c r="AA261" s="21"/>
     </row>
-    <row r="262" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A262" s="96" t="s">
         <v>105</v>
       </c>
@@ -12007,7 +12014,7 @@
       <c r="Z262" s="21"/>
       <c r="AA262" s="21"/>
     </row>
-    <row r="263" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A263" s="78" t="s">
         <v>107</v>
       </c>
@@ -12040,7 +12047,7 @@
       <c r="Z263" s="21"/>
       <c r="AA263" s="21"/>
     </row>
-    <row r="264" spans="1:27" ht="13.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:27" ht="13.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A264" s="78" t="s">
         <v>109</v>
       </c>
@@ -12073,7 +12080,7 @@
       <c r="Z264" s="21"/>
       <c r="AA264" s="21"/>
     </row>
-    <row r="265" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A265" s="78" t="s">
         <v>111</v>
       </c>
@@ -12105,7 +12112,7 @@
       <c r="Z265" s="21"/>
       <c r="AA265" s="21"/>
     </row>
-    <row r="266" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A266" s="78" t="s">
         <v>153</v>
       </c>
@@ -12137,7 +12144,7 @@
       <c r="Z266" s="21"/>
       <c r="AA266" s="21"/>
     </row>
-    <row r="267" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A267" s="78" t="s">
         <v>113</v>
       </c>
@@ -12170,7 +12177,7 @@
       <c r="Z267" s="21"/>
       <c r="AA267" s="21"/>
     </row>
-    <row r="268" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A268" s="78" t="s">
         <v>133</v>
       </c>
@@ -12203,7 +12210,7 @@
       <c r="Z268" s="21"/>
       <c r="AA268" s="21"/>
     </row>
-    <row r="269" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A269" s="78" t="s">
         <v>135</v>
       </c>
@@ -12236,7 +12243,7 @@
       <c r="Z269" s="21"/>
       <c r="AA269" s="21"/>
     </row>
-    <row r="270" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A270" s="78" t="s">
         <v>137</v>
       </c>
@@ -12269,7 +12276,7 @@
       <c r="Z270" s="21"/>
       <c r="AA270" s="21"/>
     </row>
-    <row r="271" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A271" s="78" t="s">
         <v>139</v>
       </c>
@@ -12302,7 +12309,7 @@
       <c r="Z271" s="21"/>
       <c r="AA271" s="21"/>
     </row>
-    <row r="272" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A272" s="78" t="s">
         <v>141</v>
       </c>
@@ -12335,7 +12342,7 @@
       <c r="Z272" s="21"/>
       <c r="AA272" s="21"/>
     </row>
-    <row r="273" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A273" s="78" t="s">
         <v>143</v>
       </c>
@@ -12368,7 +12375,7 @@
       <c r="Z273" s="21"/>
       <c r="AA273" s="21"/>
     </row>
-    <row r="274" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A274" s="78" t="s">
         <v>145</v>
       </c>
@@ -12401,7 +12408,7 @@
       <c r="Z274" s="21"/>
       <c r="AA274" s="21"/>
     </row>
-    <row r="275" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A275" s="78" t="s">
         <v>147</v>
       </c>
@@ -12434,7 +12441,7 @@
       <c r="Z275" s="21"/>
       <c r="AA275" s="21"/>
     </row>
-    <row r="276" spans="1:27" ht="28.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:27" ht="28.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A276" s="56" t="s">
         <v>152</v>
       </c>
@@ -12467,7 +12474,7 @@
       <c r="Z276" s="21"/>
       <c r="AA276" s="21"/>
     </row>
-    <row r="277" spans="1:27" ht="28.2" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:27" ht="28.15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A277" s="56" t="s">
         <v>155</v>
       </c>
@@ -12500,7 +12507,7 @@
       <c r="Z277" s="21"/>
       <c r="AA277" s="21"/>
     </row>
-    <row r="278" spans="1:27" ht="13.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:27" ht="13.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A278" s="78" t="s">
         <v>116</v>
       </c>
@@ -12533,7 +12540,7 @@
       <c r="Z278" s="21"/>
       <c r="AA278" s="21"/>
     </row>
-    <row r="279" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A279" s="93" t="s">
         <v>117</v>
       </c>
@@ -12566,7 +12573,7 @@
       <c r="Z279" s="21"/>
       <c r="AA279" s="21"/>
     </row>
-    <row r="280" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A280" s="78" t="s">
         <v>119</v>
       </c>
@@ -12599,7 +12606,7 @@
       <c r="Z280" s="21"/>
       <c r="AA280" s="21"/>
     </row>
-    <row r="281" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A281" s="78" t="s">
         <v>121</v>
       </c>
@@ -12632,7 +12639,7 @@
       <c r="Z281" s="21"/>
       <c r="AA281" s="21"/>
     </row>
-    <row r="282" spans="1:27" ht="13.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:27" ht="13.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A282" s="78" t="s">
         <v>124</v>
       </c>
@@ -12665,7 +12672,7 @@
       <c r="Z282" s="21"/>
       <c r="AA282" s="21"/>
     </row>
-    <row r="283" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A283" s="78" t="s">
         <v>126</v>
       </c>
@@ -12697,7 +12704,7 @@
       <c r="Z283" s="21"/>
       <c r="AA283" s="21"/>
     </row>
-    <row r="284" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A284" s="78" t="s">
         <v>128</v>
       </c>
@@ -12730,7 +12737,7 @@
       <c r="Z284" s="21"/>
       <c r="AA284" s="21"/>
     </row>
-    <row r="285" spans="1:27" ht="13.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:27" ht="13.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A285" s="78" t="s">
         <v>130</v>
       </c>
@@ -12763,7 +12770,7 @@
       <c r="Z285" s="21"/>
       <c r="AA285" s="21"/>
     </row>
-    <row r="286" spans="1:27" ht="13.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:27" ht="13.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A286" s="78" t="s">
         <v>159</v>
       </c>
@@ -12796,7 +12803,7 @@
       <c r="Z286" s="21"/>
       <c r="AA286" s="21"/>
     </row>
-    <row r="287" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A287" s="78" t="s">
         <v>160</v>
       </c>
@@ -12829,7 +12836,7 @@
       <c r="Z287" s="21"/>
       <c r="AA287" s="21"/>
     </row>
-    <row r="288" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A288" s="78" t="s">
         <v>163</v>
       </c>
@@ -12862,7 +12869,7 @@
       <c r="Z288" s="21"/>
       <c r="AA288" s="21"/>
     </row>
-    <row r="289" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A289" s="78" t="s">
         <v>165</v>
       </c>
@@ -12895,7 +12902,7 @@
       <c r="Z289" s="21"/>
       <c r="AA289" s="21"/>
     </row>
-    <row r="290" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A290" s="78" t="s">
         <v>157</v>
       </c>
@@ -12928,7 +12935,7 @@
       <c r="Z290" s="21"/>
       <c r="AA290" s="21"/>
     </row>
-    <row r="291" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A291" s="62" t="s">
         <v>181</v>
       </c>
@@ -12959,7 +12966,7 @@
       <c r="Z291" s="31"/>
       <c r="AA291" s="31"/>
     </row>
-    <row r="292" spans="1:27" ht="28.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:27" ht="28.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A292" s="78" t="s">
         <v>178</v>
       </c>
@@ -12990,7 +12997,7 @@
       <c r="Z292" s="21"/>
       <c r="AA292" s="21"/>
     </row>
-    <row r="293" spans="1:27" ht="13.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:27" ht="13.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A293" s="78" t="s">
         <v>176</v>
       </c>
@@ -13021,7 +13028,7 @@
       <c r="Z293" s="21"/>
       <c r="AA293" s="21"/>
     </row>
-    <row r="294" spans="1:27" ht="13.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:27" ht="13.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A294" s="78" t="s">
         <v>175</v>
       </c>
@@ -13052,12 +13059,12 @@
       <c r="Z294" s="34"/>
       <c r="AA294" s="34"/>
     </row>
-    <row r="295" spans="1:27" ht="13.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:27" ht="13.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A295" s="78" t="s">
         <v>182</v>
       </c>
       <c r="B295" s="143" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C295" s="54"/>
       <c r="D295" s="34"/>
@@ -13085,7 +13092,7 @@
       <c r="Z295" s="34"/>
       <c r="AA295" s="34"/>
     </row>
-    <row r="296" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:27" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A296" s="62" t="s">
         <v>171</v>
       </c>
@@ -13116,7 +13123,7 @@
       <c r="Z296" s="31"/>
       <c r="AA296" s="31"/>
     </row>
-    <row r="297" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A297" s="56" t="s">
         <v>167</v>
       </c>
@@ -13149,7 +13156,7 @@
       <c r="Z297" s="21"/>
       <c r="AA297" s="21"/>
     </row>
-    <row r="298" spans="1:27" ht="28.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:27" ht="28.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A298" s="56" t="s">
         <v>168</v>
       </c>
@@ -13182,7 +13189,7 @@
       <c r="Z298" s="21"/>
       <c r="AA298" s="21"/>
     </row>
-    <row r="299" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A299" s="56" t="s">
         <v>104</v>
       </c>
@@ -13215,7 +13222,7 @@
       <c r="Z299" s="21"/>
       <c r="AA299" s="21"/>
     </row>
-    <row r="300" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A300" s="56" t="s">
         <v>149</v>
       </c>
@@ -13248,7 +13255,7 @@
       <c r="Z300" s="34"/>
       <c r="AA300" s="34"/>
     </row>
-    <row r="301" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A301" s="56" t="s">
         <v>150</v>
       </c>
@@ -13281,7 +13288,7 @@
       <c r="Z301" s="34"/>
       <c r="AA301" s="34"/>
     </row>
-    <row r="302" spans="1:27" ht="28.8" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:27" ht="45" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A302" s="95" t="s">
         <v>172</v>
       </c>
@@ -13314,7 +13321,7 @@
       <c r="Z302" s="31"/>
       <c r="AA302" s="31"/>
     </row>
-    <row r="303" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:27" ht="14.25" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A303" s="94" t="s">
         <v>173</v>
       </c>
@@ -13345,9 +13352,9 @@
       <c r="Z303" s="21"/>
       <c r="AA303" s="21"/>
     </row>
-    <row r="304" spans="1:27" s="146" customFormat="1" ht="31.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:27" s="146" customFormat="1" ht="31.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A304" s="65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B304" s="103"/>
       <c r="C304" s="40"/>
@@ -13376,7 +13383,7 @@
       <c r="Z304" s="145"/>
       <c r="AA304" s="145"/>
     </row>
-    <row r="305" spans="1:27" s="146" customFormat="1" ht="28.8" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:27" s="146" customFormat="1" ht="30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A305" s="140" t="s">
         <v>64</v>
       </c>
@@ -13407,9 +13414,9 @@
       <c r="Z305" s="148"/>
       <c r="AA305" s="148"/>
     </row>
-    <row r="306" spans="1:27" s="146" customFormat="1" ht="70.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:27" s="146" customFormat="1" ht="70.900000000000006" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A306" s="149" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B306" s="150"/>
       <c r="C306" s="91"/>
@@ -13438,9 +13445,9 @@
       <c r="Z306" s="151"/>
       <c r="AA306" s="151"/>
     </row>
-    <row r="307" spans="1:27" s="146" customFormat="1" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:27" s="146" customFormat="1" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A307" s="150" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B307" s="152"/>
       <c r="C307" s="91"/>
@@ -13469,9 +13476,9 @@
       <c r="Z307" s="151"/>
       <c r="AA307" s="151"/>
     </row>
-    <row r="308" spans="1:27" s="146" customFormat="1" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:27" s="146" customFormat="1" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A308" s="150" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B308" s="153"/>
       <c r="C308" s="92"/>
@@ -13500,9 +13507,9 @@
       <c r="Z308" s="151"/>
       <c r="AA308" s="151"/>
     </row>
-    <row r="309" spans="1:27" s="146" customFormat="1" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:27" s="146" customFormat="1" ht="14.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A309" s="150" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B309" s="153"/>
       <c r="C309" s="90"/>
@@ -13531,9 +13538,9 @@
       <c r="Z309" s="151"/>
       <c r="AA309" s="151"/>
     </row>
-    <row r="310" spans="1:27" s="146" customFormat="1" ht="13.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:27" s="146" customFormat="1" ht="13.9" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A310" s="150" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B310" s="154"/>
       <c r="C310" s="54"/>
@@ -13562,9 +13569,9 @@
       <c r="Z310" s="151"/>
       <c r="AA310" s="151"/>
     </row>
-    <row r="311" spans="1:27" s="146" customFormat="1" ht="31.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:27" s="146" customFormat="1" ht="31.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A311" s="65" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B311" s="103"/>
       <c r="C311" s="40"/>
@@ -13593,7 +13600,7 @@
       <c r="Z311" s="145"/>
       <c r="AA311" s="145"/>
     </row>
-    <row r="312" spans="1:27" s="146" customFormat="1" ht="29.4" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:27" s="146" customFormat="1" ht="29.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A312" s="140" t="s">
         <v>64</v>
       </c>
@@ -13624,9 +13631,9 @@
       <c r="Z312" s="151"/>
       <c r="AA312" s="151"/>
     </row>
-    <row r="313" spans="1:27" s="146" customFormat="1" ht="14.4" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A313" s="190" t="s">
-        <v>262</v>
+    <row r="313" spans="1:27" s="146" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A313" s="188" t="s">
+        <v>261</v>
       </c>
       <c r="B313" s="153"/>
       <c r="C313" s="54"/>
@@ -13655,14 +13662,12 @@
       <c r="Z313" s="151"/>
       <c r="AA313" s="151"/>
     </row>
-    <row r="314" spans="1:27" s="146" customFormat="1" ht="57.6" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A314" s="189" t="s">
-        <v>377</v>
+    <row r="314" spans="1:27" s="146" customFormat="1" ht="75" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A314" s="187" t="s">
+        <v>370</v>
       </c>
       <c r="B314" s="153"/>
-      <c r="C314" s="54" t="s">
-        <v>347</v>
-      </c>
+      <c r="C314" s="54"/>
       <c r="D314" s="151"/>
       <c r="E314" s="151"/>
       <c r="F314" s="151"/>
@@ -13688,12 +13693,14 @@
       <c r="Z314" s="151"/>
       <c r="AA314" s="151"/>
     </row>
-    <row r="315" spans="1:27" s="146" customFormat="1" ht="24.6" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:27" s="146" customFormat="1" ht="24.6" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A315" s="141" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B315" s="156"/>
-      <c r="C315" s="54"/>
+      <c r="C315" s="54" t="s">
+        <v>383</v>
+      </c>
       <c r="D315" s="151"/>
       <c r="E315" s="151"/>
       <c r="F315" s="151"/>
@@ -13719,14 +13726,16 @@
       <c r="Z315" s="151"/>
       <c r="AA315" s="151"/>
     </row>
-    <row r="316" spans="1:27" s="146" customFormat="1" ht="24.6" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
-      <c r="A316" s="189" t="s">
-        <v>387</v>
-      </c>
-      <c r="B316" s="216" t="s">
-        <v>388</v>
-      </c>
-      <c r="C316" s="54"/>
+    <row r="316" spans="1:27" s="146" customFormat="1" ht="30" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A316" s="187" t="s">
+        <v>380</v>
+      </c>
+      <c r="B316" s="214" t="s">
+        <v>381</v>
+      </c>
+      <c r="C316" s="54" t="s">
+        <v>384</v>
+      </c>
       <c r="D316" s="151"/>
       <c r="E316" s="151"/>
       <c r="F316" s="151"/>
@@ -13752,11 +13761,11 @@
       <c r="Z316" s="151"/>
       <c r="AA316" s="151"/>
     </row>
-    <row r="317" spans="1:27" ht="26.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:27" ht="26.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A317" s="104" t="s">
-        <v>264</v>
-      </c>
-      <c r="B317" s="215"/>
+        <v>263</v>
+      </c>
+      <c r="B317" s="213"/>
       <c r="C317" s="39"/>
       <c r="D317" s="24"/>
       <c r="E317" s="24"/>
@@ -13783,9 +13792,9 @@
       <c r="Z317" s="24"/>
       <c r="AA317" s="24"/>
     </row>
-    <row r="318" spans="1:27" ht="158.4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:27" ht="165" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A318" s="157" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B318" s="158"/>
       <c r="C318" s="109"/>
@@ -13814,9 +13823,9 @@
       <c r="Z318" s="159"/>
       <c r="AA318" s="159"/>
     </row>
-    <row r="319" spans="1:27" ht="27" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:27" ht="27" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A319" s="115" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B319" s="94"/>
       <c r="C319" s="111"/>
@@ -13845,9 +13854,9 @@
       <c r="Z319" s="160"/>
       <c r="AA319" s="160"/>
     </row>
-    <row r="320" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A320" s="115" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B320" s="88"/>
       <c r="C320" s="92"/>
@@ -13876,9 +13885,9 @@
       <c r="Z320" s="88"/>
       <c r="AA320" s="88"/>
     </row>
-    <row r="321" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A321" s="161" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B321" s="88"/>
       <c r="C321" s="92"/>
@@ -13907,9 +13916,9 @@
       <c r="Z321" s="88"/>
       <c r="AA321" s="88"/>
     </row>
-    <row r="322" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A322" s="161" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B322" s="88"/>
       <c r="C322" s="92"/>
@@ -13938,9 +13947,9 @@
       <c r="Z322" s="88"/>
       <c r="AA322" s="88"/>
     </row>
-    <row r="323" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A323" s="88" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B323" s="88"/>
       <c r="C323" s="92"/>
@@ -13969,9 +13978,9 @@
       <c r="Z323" s="88"/>
       <c r="AA323" s="88"/>
     </row>
-    <row r="324" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A324" s="88" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B324" s="88"/>
       <c r="C324" s="92"/>
@@ -14000,9 +14009,9 @@
       <c r="Z324" s="88"/>
       <c r="AA324" s="88"/>
     </row>
-    <row r="325" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A325" s="88" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B325" s="88"/>
       <c r="C325" s="92"/>
@@ -14031,9 +14040,9 @@
       <c r="Z325" s="88"/>
       <c r="AA325" s="88"/>
     </row>
-    <row r="326" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A326" s="88" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B326" s="88"/>
       <c r="C326" s="92"/>
@@ -14062,9 +14071,9 @@
       <c r="Z326" s="88"/>
       <c r="AA326" s="88"/>
     </row>
-    <row r="327" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A327" s="88" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B327" s="88"/>
       <c r="C327" s="92"/>
@@ -14093,12 +14102,12 @@
       <c r="Z327" s="88"/>
       <c r="AA327" s="88"/>
     </row>
-    <row r="328" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A328" s="105" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B328" s="162" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C328" s="92"/>
       <c r="D328" s="88"/>
@@ -14126,9 +14135,9 @@
       <c r="Z328" s="88"/>
       <c r="AA328" s="88"/>
     </row>
-    <row r="329" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A329" s="105" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B329" s="88"/>
       <c r="C329" s="92"/>
@@ -14157,9 +14166,9 @@
       <c r="Z329" s="88"/>
       <c r="AA329" s="88"/>
     </row>
-    <row r="330" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A330" s="105" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B330" s="88"/>
       <c r="C330" s="92"/>
@@ -14188,9 +14197,9 @@
       <c r="Z330" s="88"/>
       <c r="AA330" s="88"/>
     </row>
-    <row r="331" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A331" s="105" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B331" s="88"/>
       <c r="C331" s="92"/>
@@ -14219,9 +14228,9 @@
       <c r="Z331" s="88"/>
       <c r="AA331" s="88"/>
     </row>
-    <row r="332" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B332" s="17"/>
       <c r="C332" s="38"/>
@@ -14250,9 +14259,9 @@
       <c r="Z332" s="17"/>
       <c r="AA332" s="17"/>
     </row>
-    <row r="333" spans="1:27" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A333" s="70" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B333" s="20"/>
       <c r="C333" s="37"/>
@@ -14281,12 +14290,12 @@
       <c r="Z333" s="19"/>
       <c r="AA333" s="19"/>
     </row>
-    <row r="334" spans="1:27" ht="29.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:27" ht="29.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A334" s="66" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B334" s="66" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C334" s="37"/>
       <c r="D334" s="21"/>
@@ -14314,9 +14323,9 @@
       <c r="Z334" s="21"/>
       <c r="AA334" s="21"/>
     </row>
-    <row r="335" spans="1:27" ht="129.6" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:27" ht="135" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A335" s="70" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B335" s="108"/>
       <c r="C335" s="37"/>
@@ -14345,9 +14354,9 @@
       <c r="Z335" s="21"/>
       <c r="AA335" s="21"/>
     </row>
-    <row r="336" spans="1:27" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="179" t="s">
-        <v>350</v>
+    <row r="336" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="177" t="s">
+        <v>343</v>
       </c>
       <c r="B336" s="163"/>
       <c r="C336" s="37"/>
@@ -14376,12 +14385,12 @@
       <c r="Z336" s="21"/>
       <c r="AA336" s="21"/>
     </row>
-    <row r="337" spans="1:27" ht="43.2" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="179" t="s">
-        <v>353</v>
+    <row r="337" spans="1:27" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="177" t="s">
+        <v>346</v>
       </c>
       <c r="B337" s="120" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C337" s="37"/>
       <c r="D337" s="21"/>
@@ -14409,9 +14418,9 @@
       <c r="Z337" s="21"/>
       <c r="AA337" s="21"/>
     </row>
-    <row r="338" spans="1:27" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="182" t="s">
-        <v>354</v>
+    <row r="338" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="180" t="s">
+        <v>347</v>
       </c>
       <c r="B338" s="120"/>
       <c r="C338" s="37"/>
@@ -14440,12 +14449,12 @@
       <c r="Z338" s="21"/>
       <c r="AA338" s="21"/>
     </row>
-    <row r="339" spans="1:27" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="182" t="s">
-        <v>355</v>
-      </c>
-      <c r="B339" s="182" t="s">
-        <v>356</v>
+    <row r="339" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="180" t="s">
+        <v>348</v>
+      </c>
+      <c r="B339" s="180" t="s">
+        <v>349</v>
       </c>
       <c r="C339" s="37"/>
       <c r="D339" s="21"/>
@@ -14473,9 +14482,9 @@
       <c r="Z339" s="21"/>
       <c r="AA339" s="21"/>
     </row>
-    <row r="340" spans="1:27" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="182" t="s">
-        <v>359</v>
+    <row r="340" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="180" t="s">
+        <v>352</v>
       </c>
       <c r="B340" s="120"/>
       <c r="C340" s="37"/>
@@ -14504,9 +14513,9 @@
       <c r="Z340" s="21"/>
       <c r="AA340" s="21"/>
     </row>
-    <row r="341" spans="1:27" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="182" t="s">
-        <v>372</v>
+    <row r="341" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="180" t="s">
+        <v>365</v>
       </c>
       <c r="B341" s="120"/>
       <c r="C341" s="37"/>
@@ -14535,9 +14544,9 @@
       <c r="Z341" s="21"/>
       <c r="AA341" s="21"/>
     </row>
-    <row r="342" spans="1:27" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="182" t="s">
-        <v>373</v>
+    <row r="342" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="180" t="s">
+        <v>366</v>
       </c>
       <c r="B342" s="120"/>
       <c r="C342" s="37"/>
@@ -14566,9 +14575,9 @@
       <c r="Z342" s="21"/>
       <c r="AA342" s="21"/>
     </row>
-    <row r="343" spans="1:27" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="182" t="s">
-        <v>374</v>
+    <row r="343" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="180" t="s">
+        <v>367</v>
       </c>
       <c r="B343" s="120"/>
       <c r="C343" s="37"/>
@@ -14597,9 +14606,9 @@
       <c r="Z343" s="21"/>
       <c r="AA343" s="21"/>
     </row>
-    <row r="344" spans="1:27" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="182" t="s">
-        <v>375</v>
+    <row r="344" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="180" t="s">
+        <v>368</v>
       </c>
       <c r="B344" s="120"/>
       <c r="C344" s="37"/>
@@ -14628,10 +14637,12 @@
       <c r="Z344" s="21"/>
       <c r="AA344" s="21"/>
     </row>
-    <row r="345" spans="1:27" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="179"/>
+    <row r="345" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="177"/>
       <c r="B345" s="120"/>
-      <c r="C345" s="37"/>
+      <c r="C345" s="37" t="s">
+        <v>385</v>
+      </c>
       <c r="D345" s="21"/>
       <c r="E345" s="21"/>
       <c r="F345" s="21"/>
@@ -14657,10 +14668,12 @@
       <c r="Z345" s="21"/>
       <c r="AA345" s="21"/>
     </row>
-    <row r="346" spans="1:27" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="179"/>
+    <row r="346" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="177"/>
       <c r="B346" s="120"/>
-      <c r="C346" s="37"/>
+      <c r="C346" s="37" t="s">
+        <v>385</v>
+      </c>
       <c r="D346" s="21"/>
       <c r="E346" s="21"/>
       <c r="F346" s="21"/>
@@ -14686,7 +14699,7 @@
       <c r="Z346" s="21"/>
       <c r="AA346" s="21"/>
     </row>
-    <row r="347" spans="1:27" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:27" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A347" s="66" t="s">
         <v>55</v>
       </c>
@@ -14717,9 +14730,9 @@
       <c r="Z347" s="21"/>
       <c r="AA347" s="21"/>
     </row>
-    <row r="348" spans="1:27" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:27" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A348" s="66" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B348" s="21"/>
       <c r="C348" s="37"/>
@@ -14748,7 +14761,7 @@
       <c r="Z348" s="21"/>
       <c r="AA348" s="21"/>
     </row>
-    <row r="349" spans="1:27" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:27" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A349" s="66" t="s">
         <v>58</v>
       </c>
@@ -14779,9 +14792,9 @@
       <c r="Z349" s="21"/>
       <c r="AA349" s="21"/>
     </row>
-    <row r="350" spans="1:27" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:27" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A350" s="66" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B350" s="20"/>
       <c r="C350" s="37"/>
@@ -14810,9 +14823,9 @@
       <c r="Z350" s="21"/>
       <c r="AA350" s="21"/>
     </row>
-    <row r="351" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="106" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B351" s="17"/>
       <c r="C351" s="38"/>
@@ -14841,9 +14854,9 @@
       <c r="Z351" s="17"/>
       <c r="AA351" s="17"/>
     </row>
-    <row r="352" spans="1:27" ht="115.2" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:27" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A352" s="56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B352" s="33"/>
       <c r="C352" s="47"/>
@@ -14872,7 +14885,7 @@
       <c r="Z352" s="34"/>
       <c r="AA352" s="34"/>
     </row>
-    <row r="353" spans="1:27" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A353" s="66" t="s">
         <v>60</v>
       </c>
@@ -14903,9 +14916,9 @@
       <c r="Z353" s="34"/>
       <c r="AA353" s="34"/>
     </row>
-    <row r="354" spans="1:27" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A354" s="107" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B354" s="33"/>
       <c r="C354" s="47"/>
@@ -14934,9 +14947,9 @@
       <c r="Z354" s="34"/>
       <c r="AA354" s="34"/>
     </row>
-    <row r="355" spans="1:27" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:27" ht="27" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A355" s="128" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B355" s="134"/>
       <c r="C355" s="135"/>
@@ -14965,7 +14978,7 @@
       <c r="Z355" s="24"/>
       <c r="AA355" s="24"/>
     </row>
-    <row r="356" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A356" s="114" t="s">
         <v>61</v>
       </c>
@@ -14996,9 +15009,9 @@
       <c r="Z356" s="88"/>
       <c r="AA356" s="88"/>
     </row>
-    <row r="357" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A357" s="114" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B357" s="88"/>
       <c r="C357" s="92"/>
@@ -15027,9 +15040,9 @@
       <c r="Z357" s="88"/>
       <c r="AA357" s="88"/>
     </row>
-    <row r="358" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A358" s="114" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B358" s="88"/>
       <c r="C358" s="92"/>
@@ -15058,9 +15071,9 @@
       <c r="Z358" s="88"/>
       <c r="AA358" s="88"/>
     </row>
-    <row r="359" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A359" s="129" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B359" s="88"/>
       <c r="C359" s="92"/>
@@ -15089,9 +15102,9 @@
       <c r="Z359" s="88"/>
       <c r="AA359" s="88"/>
     </row>
-    <row r="360" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A360" s="129" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B360" s="88"/>
       <c r="C360" s="92"/>
@@ -15120,9 +15133,9 @@
       <c r="Z360" s="88"/>
       <c r="AA360" s="88"/>
     </row>
-    <row r="361" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A361" s="129" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B361" s="88"/>
       <c r="C361" s="92"/>
@@ -15151,7 +15164,7 @@
       <c r="Z361" s="88"/>
       <c r="AA361" s="88"/>
     </row>
-    <row r="362" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A362" s="130" t="s">
         <v>27</v>
       </c>
@@ -15182,9 +15195,9 @@
       <c r="Z362" s="27"/>
       <c r="AA362" s="27"/>
     </row>
-    <row r="363" spans="1:27" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:27" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A363" s="50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B363" s="88"/>
       <c r="C363" s="92"/>
@@ -15213,7 +15226,7 @@
       <c r="Z363" s="88"/>
       <c r="AA363" s="88"/>
     </row>
-    <row r="364" spans="1:27" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:27" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A364" s="50" t="s">
         <v>29</v>
       </c>
@@ -15244,9 +15257,9 @@
       <c r="Z364" s="88"/>
       <c r="AA364" s="88"/>
     </row>
-    <row r="365" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A365" s="130" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B365" s="136"/>
       <c r="C365" s="137"/>
@@ -15275,7 +15288,7 @@
       <c r="Z365" s="27"/>
       <c r="AA365" s="27"/>
     </row>
-    <row r="366" spans="1:27" ht="31.95" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:27" ht="31.9" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A366" s="107" t="s">
         <v>64</v>
       </c>
@@ -15306,7 +15319,7 @@
       <c r="Z366" s="88"/>
       <c r="AA366" s="88"/>
     </row>
-    <row r="367" spans="1:27" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:27" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A367" s="62" t="s">
         <v>31</v>
       </c>
@@ -15337,12 +15350,12 @@
       <c r="Z367" s="30"/>
       <c r="AA367" s="30"/>
     </row>
-    <row r="368" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A368" s="32" t="s">
         <v>32</v>
       </c>
       <c r="B368" s="67" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C368" s="92"/>
       <c r="D368" s="88"/>
@@ -15370,12 +15383,12 @@
       <c r="Z368" s="88"/>
       <c r="AA368" s="88"/>
     </row>
-    <row r="369" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A369" s="32" t="s">
         <v>33</v>
       </c>
       <c r="B369" s="68" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C369" s="92"/>
       <c r="D369" s="88"/>
@@ -15403,7 +15416,7 @@
       <c r="Z369" s="88"/>
       <c r="AA369" s="88"/>
     </row>
-    <row r="370" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A370" s="32" t="s">
         <v>34</v>
       </c>
@@ -15436,7 +15449,7 @@
       <c r="Z370" s="88"/>
       <c r="AA370" s="88"/>
     </row>
-    <row r="371" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A371" s="32" t="s">
         <v>35</v>
       </c>
@@ -15469,12 +15482,12 @@
       <c r="Z371" s="88"/>
       <c r="AA371" s="88"/>
     </row>
-    <row r="372" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A372" s="32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B372" s="164" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C372" s="92"/>
       <c r="D372" s="88"/>
@@ -15502,7 +15515,7 @@
       <c r="Z372" s="88"/>
       <c r="AA372" s="88"/>
     </row>
-    <row r="373" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A373" s="32" t="s">
         <v>46</v>
       </c>
@@ -15535,12 +15548,12 @@
       <c r="Z373" s="88"/>
       <c r="AA373" s="88"/>
     </row>
-    <row r="374" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A374" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B374" s="142" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C374" s="92"/>
       <c r="D374" s="88"/>
@@ -15568,7 +15581,7 @@
       <c r="Z374" s="88"/>
       <c r="AA374" s="88"/>
     </row>
-    <row r="375" spans="1:27" ht="30.6" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:27" ht="30.6" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A375" s="57" t="s">
         <v>39</v>
       </c>
@@ -15601,7 +15614,7 @@
       <c r="Z375" s="30"/>
       <c r="AA375" s="30"/>
     </row>
-    <row r="376" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A376" s="56" t="s">
         <v>41</v>
       </c>
@@ -15632,7 +15645,7 @@
       <c r="Z376" s="88"/>
       <c r="AA376" s="88"/>
     </row>
-    <row r="377" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A377" s="71" t="s">
         <v>69</v>
       </c>
@@ -15665,12 +15678,12 @@
       <c r="Z377" s="88"/>
       <c r="AA377" s="88"/>
     </row>
-    <row r="378" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A378" s="68" t="s">
         <v>70</v>
       </c>
       <c r="B378" s="142" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C378" s="92"/>
       <c r="D378" s="88"/>
@@ -15698,12 +15711,12 @@
       <c r="Z378" s="88"/>
       <c r="AA378" s="88"/>
     </row>
-    <row r="379" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A379" s="32" t="s">
         <v>42</v>
       </c>
       <c r="B379" s="73" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C379" s="92"/>
       <c r="D379" s="88"/>
@@ -15731,7 +15744,7 @@
       <c r="Z379" s="88"/>
       <c r="AA379" s="88"/>
     </row>
-    <row r="380" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A380" s="32" t="s">
         <v>43</v>
       </c>
@@ -15764,12 +15777,12 @@
       <c r="Z380" s="88"/>
       <c r="AA380" s="88"/>
     </row>
-    <row r="381" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A381" s="78" t="s">
         <v>44</v>
       </c>
       <c r="B381" s="81" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C381" s="92"/>
       <c r="D381" s="88"/>
@@ -15797,12 +15810,12 @@
       <c r="Z381" s="88"/>
       <c r="AA381" s="88"/>
     </row>
-    <row r="382" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A382" s="78" t="s">
         <v>75</v>
       </c>
       <c r="B382" s="166" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C382" s="92"/>
       <c r="D382" s="88"/>
@@ -15830,12 +15843,12 @@
       <c r="Z382" s="88"/>
       <c r="AA382" s="88"/>
     </row>
-    <row r="383" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A383" s="78" t="s">
         <v>76</v>
       </c>
       <c r="B383" s="167" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C383" s="92"/>
       <c r="D383" s="88"/>
@@ -15863,9 +15876,9 @@
       <c r="Z383" s="88"/>
       <c r="AA383" s="88"/>
     </row>
-    <row r="384" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A384" s="168" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B384" s="136"/>
       <c r="C384" s="137"/>
@@ -15894,7 +15907,7 @@
       <c r="Z384" s="27"/>
       <c r="AA384" s="27"/>
     </row>
-    <row r="385" spans="1:27" ht="29.4" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:27" ht="29.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A385" s="107" t="s">
         <v>64</v>
       </c>
@@ -15925,7 +15938,7 @@
       <c r="Z385" s="88"/>
       <c r="AA385" s="88"/>
     </row>
-    <row r="386" spans="1:27" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:27" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A386" s="62" t="s">
         <v>31</v>
       </c>
@@ -15956,12 +15969,12 @@
       <c r="Z386" s="30"/>
       <c r="AA386" s="30"/>
     </row>
-    <row r="387" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A387" s="32" t="s">
         <v>32</v>
       </c>
       <c r="B387" s="67" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C387" s="92"/>
       <c r="D387" s="88"/>
@@ -15989,12 +16002,12 @@
       <c r="Z387" s="88"/>
       <c r="AA387" s="88"/>
     </row>
-    <row r="388" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A388" s="32" t="s">
         <v>33</v>
       </c>
       <c r="B388" s="67" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C388" s="92"/>
       <c r="D388" s="88"/>
@@ -16022,7 +16035,7 @@
       <c r="Z388" s="88"/>
       <c r="AA388" s="88"/>
     </row>
-    <row r="389" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A389" s="32" t="s">
         <v>34</v>
       </c>
@@ -16055,7 +16068,7 @@
       <c r="Z389" s="88"/>
       <c r="AA389" s="88"/>
     </row>
-    <row r="390" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A390" s="32" t="s">
         <v>35</v>
       </c>
@@ -16088,12 +16101,12 @@
       <c r="Z390" s="88"/>
       <c r="AA390" s="88"/>
     </row>
-    <row r="391" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A391" s="32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B391" s="164" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C391" s="92"/>
       <c r="D391" s="88"/>
@@ -16121,7 +16134,7 @@
       <c r="Z391" s="88"/>
       <c r="AA391" s="88"/>
     </row>
-    <row r="392" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A392" s="32" t="s">
         <v>46</v>
       </c>
@@ -16154,12 +16167,12 @@
       <c r="Z392" s="88"/>
       <c r="AA392" s="88"/>
     </row>
-    <row r="393" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A393" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B393" s="142" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C393" s="92"/>
       <c r="D393" s="88"/>
@@ -16187,7 +16200,7 @@
       <c r="Z393" s="88"/>
       <c r="AA393" s="88"/>
     </row>
-    <row r="394" spans="1:27" ht="30.6" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:27" ht="30.6" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A394" s="57" t="s">
         <v>39</v>
       </c>
@@ -16220,7 +16233,7 @@
       <c r="Z394" s="30"/>
       <c r="AA394" s="30"/>
     </row>
-    <row r="395" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A395" s="56" t="s">
         <v>41</v>
       </c>
@@ -16251,7 +16264,7 @@
       <c r="Z395" s="88"/>
       <c r="AA395" s="88"/>
     </row>
-    <row r="396" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A396" s="71" t="s">
         <v>69</v>
       </c>
@@ -16284,12 +16297,12 @@
       <c r="Z396" s="88"/>
       <c r="AA396" s="88"/>
     </row>
-    <row r="397" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A397" s="68" t="s">
         <v>70</v>
       </c>
       <c r="B397" s="142" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C397" s="92"/>
       <c r="D397" s="88"/>
@@ -16317,12 +16330,12 @@
       <c r="Z397" s="88"/>
       <c r="AA397" s="88"/>
     </row>
-    <row r="398" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A398" s="32" t="s">
         <v>42</v>
       </c>
       <c r="B398" s="73" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C398" s="92"/>
       <c r="D398" s="88"/>
@@ -16350,7 +16363,7 @@
       <c r="Z398" s="88"/>
       <c r="AA398" s="88"/>
     </row>
-    <row r="399" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A399" s="32" t="s">
         <v>43</v>
       </c>
@@ -16383,12 +16396,12 @@
       <c r="Z399" s="88"/>
       <c r="AA399" s="88"/>
     </row>
-    <row r="400" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A400" s="78" t="s">
         <v>44</v>
       </c>
       <c r="B400" s="81" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C400" s="92"/>
       <c r="D400" s="88"/>
@@ -16416,12 +16429,12 @@
       <c r="Z400" s="88"/>
       <c r="AA400" s="88"/>
     </row>
-    <row r="401" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A401" s="78" t="s">
         <v>75</v>
       </c>
       <c r="B401" s="166" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C401" s="92"/>
       <c r="D401" s="88"/>
@@ -16449,12 +16462,12 @@
       <c r="Z401" s="88"/>
       <c r="AA401" s="88"/>
     </row>
-    <row r="402" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A402" s="78" t="s">
         <v>76</v>
       </c>
       <c r="B402" s="167" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C402" s="92"/>
       <c r="D402" s="88"/>
@@ -16482,9 +16495,9 @@
       <c r="Z402" s="88"/>
       <c r="AA402" s="88"/>
     </row>
-    <row r="403" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A403" s="168" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B403" s="136"/>
       <c r="C403" s="137"/>
@@ -16513,7 +16526,7 @@
       <c r="Z403" s="27"/>
       <c r="AA403" s="27"/>
     </row>
-    <row r="404" spans="1:27" ht="29.4" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:27" ht="29.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A404" s="107" t="s">
         <v>64</v>
       </c>
@@ -16544,7 +16557,7 @@
       <c r="Z404" s="88"/>
       <c r="AA404" s="88"/>
     </row>
-    <row r="405" spans="1:27" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:27" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A405" s="62" t="s">
         <v>31</v>
       </c>
@@ -16575,12 +16588,12 @@
       <c r="Z405" s="30"/>
       <c r="AA405" s="30"/>
     </row>
-    <row r="406" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A406" s="32" t="s">
         <v>32</v>
       </c>
       <c r="B406" s="67" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C406" s="92"/>
       <c r="D406" s="88"/>
@@ -16608,12 +16621,12 @@
       <c r="Z406" s="88"/>
       <c r="AA406" s="88"/>
     </row>
-    <row r="407" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A407" s="32" t="s">
         <v>33</v>
       </c>
       <c r="B407" s="67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C407" s="92"/>
       <c r="D407" s="88"/>
@@ -16641,7 +16654,7 @@
       <c r="Z407" s="88"/>
       <c r="AA407" s="88"/>
     </row>
-    <row r="408" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A408" s="32" t="s">
         <v>34</v>
       </c>
@@ -16674,7 +16687,7 @@
       <c r="Z408" s="88"/>
       <c r="AA408" s="88"/>
     </row>
-    <row r="409" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A409" s="32" t="s">
         <v>35</v>
       </c>
@@ -16707,12 +16720,12 @@
       <c r="Z409" s="88"/>
       <c r="AA409" s="88"/>
     </row>
-    <row r="410" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A410" s="32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B410" s="164" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C410" s="92"/>
       <c r="D410" s="88"/>
@@ -16740,7 +16753,7 @@
       <c r="Z410" s="88"/>
       <c r="AA410" s="88"/>
     </row>
-    <row r="411" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A411" s="32" t="s">
         <v>46</v>
       </c>
@@ -16773,12 +16786,12 @@
       <c r="Z411" s="88"/>
       <c r="AA411" s="88"/>
     </row>
-    <row r="412" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A412" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B412" s="142" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C412" s="92"/>
       <c r="D412" s="88"/>
@@ -16806,7 +16819,7 @@
       <c r="Z412" s="88"/>
       <c r="AA412" s="88"/>
     </row>
-    <row r="413" spans="1:27" ht="30.6" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:27" ht="30.6" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A413" s="57" t="s">
         <v>39</v>
       </c>
@@ -16839,7 +16852,7 @@
       <c r="Z413" s="30"/>
       <c r="AA413" s="30"/>
     </row>
-    <row r="414" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A414" s="56" t="s">
         <v>41</v>
       </c>
@@ -16870,7 +16883,7 @@
       <c r="Z414" s="88"/>
       <c r="AA414" s="88"/>
     </row>
-    <row r="415" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A415" s="71" t="s">
         <v>69</v>
       </c>
@@ -16903,12 +16916,12 @@
       <c r="Z415" s="88"/>
       <c r="AA415" s="88"/>
     </row>
-    <row r="416" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A416" s="68" t="s">
         <v>70</v>
       </c>
       <c r="B416" s="142" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C416" s="92"/>
       <c r="D416" s="88"/>
@@ -16936,12 +16949,12 @@
       <c r="Z416" s="88"/>
       <c r="AA416" s="88"/>
     </row>
-    <row r="417" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A417" s="32" t="s">
         <v>42</v>
       </c>
       <c r="B417" s="73" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C417" s="92"/>
       <c r="D417" s="88"/>
@@ -16969,7 +16982,7 @@
       <c r="Z417" s="88"/>
       <c r="AA417" s="88"/>
     </row>
-    <row r="418" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A418" s="32" t="s">
         <v>43</v>
       </c>
@@ -17002,12 +17015,12 @@
       <c r="Z418" s="88"/>
       <c r="AA418" s="88"/>
     </row>
-    <row r="419" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A419" s="78" t="s">
         <v>44</v>
       </c>
       <c r="B419" s="81" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C419" s="92"/>
       <c r="D419" s="88"/>
@@ -17035,12 +17048,12 @@
       <c r="Z419" s="88"/>
       <c r="AA419" s="88"/>
     </row>
-    <row r="420" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A420" s="78" t="s">
         <v>75</v>
       </c>
       <c r="B420" s="166" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C420" s="92"/>
       <c r="D420" s="88"/>
@@ -17068,12 +17081,12 @@
       <c r="Z420" s="88"/>
       <c r="AA420" s="88"/>
     </row>
-    <row r="421" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A421" s="78" t="s">
         <v>76</v>
       </c>
       <c r="B421" s="167" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C421" s="92"/>
       <c r="D421" s="88"/>
@@ -17101,9 +17114,9 @@
       <c r="Z421" s="88"/>
       <c r="AA421" s="88"/>
     </row>
-    <row r="422" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:27" ht="22.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A422" s="168" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B422" s="136"/>
       <c r="C422" s="137"/>
@@ -17132,7 +17145,7 @@
       <c r="Z422" s="27"/>
       <c r="AA422" s="27"/>
     </row>
-    <row r="423" spans="1:27" ht="27.6" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:27" ht="27.6" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A423" s="107" t="s">
         <v>64</v>
       </c>
@@ -17163,7 +17176,7 @@
       <c r="Z423" s="88"/>
       <c r="AA423" s="88"/>
     </row>
-    <row r="424" spans="1:27" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:27" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A424" s="62" t="s">
         <v>31</v>
       </c>
@@ -17194,12 +17207,12 @@
       <c r="Z424" s="30"/>
       <c r="AA424" s="30"/>
     </row>
-    <row r="425" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A425" s="32" t="s">
         <v>32</v>
       </c>
       <c r="B425" s="67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C425" s="92"/>
       <c r="D425" s="88"/>
@@ -17227,12 +17240,12 @@
       <c r="Z425" s="88"/>
       <c r="AA425" s="88"/>
     </row>
-    <row r="426" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A426" s="32" t="s">
         <v>33</v>
       </c>
       <c r="B426" s="67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C426" s="92"/>
       <c r="D426" s="88"/>
@@ -17260,7 +17273,7 @@
       <c r="Z426" s="88"/>
       <c r="AA426" s="88"/>
     </row>
-    <row r="427" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A427" s="32" t="s">
         <v>34</v>
       </c>
@@ -17293,7 +17306,7 @@
       <c r="Z427" s="88"/>
       <c r="AA427" s="88"/>
     </row>
-    <row r="428" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A428" s="32" t="s">
         <v>35</v>
       </c>
@@ -17326,12 +17339,12 @@
       <c r="Z428" s="88"/>
       <c r="AA428" s="88"/>
     </row>
-    <row r="429" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A429" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="B429" s="169" t="s">
         <v>317</v>
-      </c>
-      <c r="B429" s="169" t="s">
-        <v>318</v>
       </c>
       <c r="C429" s="92"/>
       <c r="D429" s="88"/>
@@ -17359,12 +17372,12 @@
       <c r="Z429" s="88"/>
       <c r="AA429" s="88"/>
     </row>
-    <row r="430" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A430" s="32" t="s">
         <v>46</v>
       </c>
       <c r="B430" s="67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C430" s="92"/>
       <c r="D430" s="88"/>
@@ -17392,12 +17405,12 @@
       <c r="Z430" s="88"/>
       <c r="AA430" s="88"/>
     </row>
-    <row r="431" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A431" s="56" t="s">
         <v>38</v>
       </c>
       <c r="B431" s="142" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C431" s="92"/>
       <c r="D431" s="88"/>
@@ -17425,7 +17438,7 @@
       <c r="Z431" s="88"/>
       <c r="AA431" s="88"/>
     </row>
-    <row r="432" spans="1:27" ht="30.6" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:27" ht="30.6" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A432" s="57" t="s">
         <v>39</v>
       </c>
@@ -17458,7 +17471,7 @@
       <c r="Z432" s="30"/>
       <c r="AA432" s="30"/>
     </row>
-    <row r="433" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A433" s="56" t="s">
         <v>41</v>
       </c>
@@ -17489,12 +17502,12 @@
       <c r="Z433" s="88"/>
       <c r="AA433" s="88"/>
     </row>
-    <row r="434" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A434" s="71" t="s">
         <v>69</v>
       </c>
       <c r="B434" s="170" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C434" s="92"/>
       <c r="D434" s="88"/>
@@ -17522,12 +17535,12 @@
       <c r="Z434" s="88"/>
       <c r="AA434" s="88"/>
     </row>
-    <row r="435" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A435" s="68" t="s">
         <v>70</v>
       </c>
       <c r="B435" s="142" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C435" s="92"/>
       <c r="D435" s="88"/>
@@ -17555,12 +17568,12 @@
       <c r="Z435" s="88"/>
       <c r="AA435" s="88"/>
     </row>
-    <row r="436" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A436" s="32" t="s">
         <v>42</v>
       </c>
       <c r="B436" s="171" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C436" s="92"/>
       <c r="D436" s="88"/>
@@ -17588,7 +17601,7 @@
       <c r="Z436" s="88"/>
       <c r="AA436" s="88"/>
     </row>
-    <row r="437" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A437" s="32" t="s">
         <v>43</v>
       </c>
@@ -17621,12 +17634,12 @@
       <c r="Z437" s="88"/>
       <c r="AA437" s="88"/>
     </row>
-    <row r="438" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A438" s="78" t="s">
         <v>44</v>
       </c>
       <c r="B438" s="81" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C438" s="92"/>
       <c r="D438" s="88"/>
@@ -17654,12 +17667,12 @@
       <c r="Z438" s="88"/>
       <c r="AA438" s="88"/>
     </row>
-    <row r="439" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A439" s="78" t="s">
         <v>75</v>
       </c>
       <c r="B439" s="166" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C439" s="92"/>
       <c r="D439" s="88"/>
@@ -17687,12 +17700,12 @@
       <c r="Z439" s="88"/>
       <c r="AA439" s="88"/>
     </row>
-    <row r="440" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:27" ht="15" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A440" s="78" t="s">
         <v>76</v>
       </c>
       <c r="B440" s="167" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C440" s="92"/>
       <c r="D440" s="88"/>
@@ -17720,9 +17733,9 @@
       <c r="Z440" s="88"/>
       <c r="AA440" s="88"/>
     </row>
-    <row r="441" spans="1:27" ht="26.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:27" ht="26.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A441" s="104" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B441" s="23"/>
       <c r="C441" s="39"/>
@@ -17751,9 +17764,9 @@
       <c r="Z441" s="24"/>
       <c r="AA441" s="24"/>
     </row>
-    <row r="442" spans="1:27" ht="115.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:27" ht="120" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A442" s="157" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B442" s="158"/>
       <c r="C442" s="109"/>
@@ -17782,9 +17795,9 @@
       <c r="Z442" s="159"/>
       <c r="AA442" s="159"/>
     </row>
-    <row r="443" spans="1:27" ht="27" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:27" ht="27" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A443" s="115" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B443" s="94"/>
       <c r="C443" s="111"/>
@@ -17813,9 +17826,9 @@
       <c r="Z443" s="160"/>
       <c r="AA443" s="160"/>
     </row>
-    <row r="444" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A444" s="115" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B444" s="88"/>
       <c r="C444" s="92"/>
@@ -17844,9 +17857,9 @@
       <c r="Z444" s="88"/>
       <c r="AA444" s="88"/>
     </row>
-    <row r="445" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A445" s="172" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B445" s="88"/>
       <c r="C445" s="92"/>
@@ -17875,9 +17888,9 @@
       <c r="Z445" s="88"/>
       <c r="AA445" s="88"/>
     </row>
-    <row r="446" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A446" s="172" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B446" s="88"/>
       <c r="C446" s="92"/>
@@ -17906,9 +17919,9 @@
       <c r="Z446" s="88"/>
       <c r="AA446" s="88"/>
     </row>
-    <row r="447" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A447" s="172" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B447" s="88"/>
       <c r="C447" s="92"/>
@@ -17937,9 +17950,9 @@
       <c r="Z447" s="88"/>
       <c r="AA447" s="88"/>
     </row>
-    <row r="448" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A448" s="172" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B448" s="88"/>
       <c r="C448" s="92"/>
@@ -17968,12 +17981,12 @@
       <c r="Z448" s="88"/>
       <c r="AA448" s="88"/>
     </row>
-    <row r="449" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A449" s="105" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B449" s="162" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C449" s="92"/>
       <c r="D449" s="88"/>
@@ -18001,9 +18014,9 @@
       <c r="Z449" s="88"/>
       <c r="AA449" s="88"/>
     </row>
-    <row r="450" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:27" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A450" s="105" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B450" s="88"/>
       <c r="C450" s="92"/>
@@ -18032,252 +18045,252 @@
       <c r="Z450" s="88"/>
       <c r="AA450" s="88"/>
     </row>
-    <row r="451" spans="1:27" s="132" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A451" s="191" t="s">
-        <v>200</v>
-      </c>
-      <c r="B451" s="192"/>
-      <c r="C451" s="193"/>
-      <c r="D451" s="192"/>
-      <c r="E451" s="192"/>
-      <c r="F451" s="192"/>
-      <c r="G451" s="192"/>
-      <c r="H451" s="192"/>
-      <c r="I451" s="192"/>
-      <c r="J451" s="192"/>
-      <c r="K451" s="192"/>
-      <c r="L451" s="192"/>
-      <c r="M451" s="192"/>
-      <c r="N451" s="192"/>
-      <c r="O451" s="192"/>
-      <c r="P451" s="192"/>
-      <c r="Q451" s="192"/>
-      <c r="R451" s="192"/>
-      <c r="S451" s="192"/>
-      <c r="T451" s="192"/>
-      <c r="U451" s="192"/>
-      <c r="V451" s="192"/>
-      <c r="W451" s="192"/>
-      <c r="X451" s="192"/>
-      <c r="Y451" s="192"/>
-      <c r="Z451" s="192"/>
-      <c r="AA451" s="192"/>
-    </row>
-    <row r="452" spans="1:27" s="88" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A452" s="195" t="s">
-        <v>337</v>
+    <row r="451" spans="1:27" s="132" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A451" s="189" t="s">
+        <v>199</v>
+      </c>
+      <c r="B451" s="190"/>
+      <c r="C451" s="191"/>
+      <c r="D451" s="190"/>
+      <c r="E451" s="190"/>
+      <c r="F451" s="190"/>
+      <c r="G451" s="190"/>
+      <c r="H451" s="190"/>
+      <c r="I451" s="190"/>
+      <c r="J451" s="190"/>
+      <c r="K451" s="190"/>
+      <c r="L451" s="190"/>
+      <c r="M451" s="190"/>
+      <c r="N451" s="190"/>
+      <c r="O451" s="190"/>
+      <c r="P451" s="190"/>
+      <c r="Q451" s="190"/>
+      <c r="R451" s="190"/>
+      <c r="S451" s="190"/>
+      <c r="T451" s="190"/>
+      <c r="U451" s="190"/>
+      <c r="V451" s="190"/>
+      <c r="W451" s="190"/>
+      <c r="X451" s="190"/>
+      <c r="Y451" s="190"/>
+      <c r="Z451" s="190"/>
+      <c r="AA451" s="190"/>
+    </row>
+    <row r="452" spans="1:27" s="88" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A452" s="193" t="s">
+        <v>336</v>
       </c>
       <c r="C452" s="92"/>
     </row>
-    <row r="453" spans="1:27" s="132" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C453" s="194"/>
-    </row>
-    <row r="454" spans="1:27" s="132" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C454" s="194"/>
-    </row>
-    <row r="455" spans="1:27" s="132" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C455" s="194"/>
-    </row>
-    <row r="456" spans="1:27" s="132" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C456" s="194"/>
-    </row>
-    <row r="457" spans="1:27" s="132" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C457" s="194"/>
-    </row>
-    <row r="458" spans="1:27" s="132" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C458" s="194"/>
-    </row>
-    <row r="459" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" spans="1:27" s="132" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C453" s="192"/>
+    </row>
+    <row r="454" spans="1:27" s="132" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C454" s="192"/>
+    </row>
+    <row r="455" spans="1:27" s="132" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C455" s="192"/>
+    </row>
+    <row r="456" spans="1:27" s="132" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C456" s="192"/>
+    </row>
+    <row r="457" spans="1:27" s="132" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C457" s="192"/>
+    </row>
+    <row r="458" spans="1:27" s="132" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C458" s="192"/>
+    </row>
+    <row r="459" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
